--- a/Program/test_data.xlsx
+++ b/Program/test_data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Projects\Protein_turnover\Programs\python\Final\Python_Matlab_prog\Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Projects\Protein_turnover\Manuscript_JUMPt\GitHub_JUMPt\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769DEB72-91D5-404E-BFCD-A43751F86285}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C149E-0627-46C7-B04F-E2DD3E0156E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E21D9E2-FF67-425E-B967-D28E133C51D0}"/>
+    <workbookView xWindow="16425" yWindow="555" windowWidth="16485" windowHeight="11385" xr2:uid="{8E21D9E2-FF67-425E-B967-D28E133C51D0}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$I$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>GN</t>
   </si>
@@ -42,51 +44,6 @@
     <t>Protein_Description</t>
   </si>
   <si>
-    <t>molar_conc_M</t>
-  </si>
-  <si>
-    <t>No_of_K</t>
-  </si>
-  <si>
-    <t>Lys_Conc_microM</t>
-  </si>
-  <si>
-    <t>tr|B7ZC71|B7ZC71_MOUSE</t>
-  </si>
-  <si>
-    <t>0610037L13Rik</t>
-  </si>
-  <si>
-    <t>Protein 0610037L13Rik</t>
-  </si>
-  <si>
-    <t>tr|E9QMK9|E9QMK9_MOUSE</t>
-  </si>
-  <si>
-    <t>9030617O03Rik</t>
-  </si>
-  <si>
-    <t>Protein 9030617O03Rik</t>
-  </si>
-  <si>
-    <t>tr|G3UW55|G3UW55_MOUSE</t>
-  </si>
-  <si>
-    <t>A230065H16Rik</t>
-  </si>
-  <si>
-    <t>MCG14937</t>
-  </si>
-  <si>
-    <t>sp|Q3THG9|AASD1_MOUSE</t>
-  </si>
-  <si>
-    <t>Aarsd1</t>
-  </si>
-  <si>
-    <t>Alanyl-tRNA editing protein Aarsd1</t>
-  </si>
-  <si>
     <t>Lysin</t>
   </si>
   <si>
@@ -109,6 +66,54 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>sp|P35279|RAB6A_MOUSE</t>
+  </si>
+  <si>
+    <t>sp|Q9R1Q8|TAGL3_MOUSE</t>
+  </si>
+  <si>
+    <t>sp|P01942|HBA_MOUSE</t>
+  </si>
+  <si>
+    <t>sp|P10922|H10_MOUSE</t>
+  </si>
+  <si>
+    <t>sp|P04370|MBP_MOUSE</t>
+  </si>
+  <si>
+    <t>Rab6a</t>
+  </si>
+  <si>
+    <t>Tagln3</t>
+  </si>
+  <si>
+    <t>Hba</t>
+  </si>
+  <si>
+    <t>H1f0</t>
+  </si>
+  <si>
+    <t>Mbp</t>
+  </si>
+  <si>
+    <t>Ras-related protein Rab-6A OS=Mus musculus GN=Rab6a PE=1 SV=4</t>
+  </si>
+  <si>
+    <t>Transgelin-3 OS=Mus musculus GN=Tagln3 PE=1 SV=1</t>
+  </si>
+  <si>
+    <t>Hemoglobin subunit alpha OS=Mus musculus GN=Hba PE=1 SV=2</t>
+  </si>
+  <si>
+    <t>Histone H1.0 OS=Mus musculus GN=H1f0 PE=2 SV=4</t>
+  </si>
+  <si>
+    <t>Myelin basic protein OS=Mus musculus GN=Mbp PE=1 SV=2</t>
+  </si>
+  <si>
+    <t>Concentration_microM</t>
   </si>
 </sst>
 </file>
@@ -460,11 +465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60708A25-E96E-44AC-9249-EF904383A189}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,13 +480,11 @@
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -490,33 +493,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -534,168 +531,176 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.82410423452768733</v>
+        <v>0.745</v>
       </c>
       <c r="F3">
-        <v>0.73109243697478987</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="G3">
-        <v>0.51282051282051277</v>
+        <v>0.497</v>
       </c>
       <c r="H3">
-        <v>0.40903823870220163</v>
+        <v>0.35</v>
+      </c>
+      <c r="I3">
+        <v>164.3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.94526267781157303</v>
+        <v>0.78085339829982203</v>
       </c>
       <c r="F4">
-        <v>0.86763827840347396</v>
+        <v>0.66871481277672207</v>
       </c>
       <c r="G4">
-        <v>0.67444016175340304</v>
+        <v>0.537937123700997</v>
       </c>
       <c r="H4">
-        <v>0.447787551966497</v>
+        <v>0.36303097120455502</v>
       </c>
       <c r="I4">
-        <v>9.8400000000000002E-7</v>
-      </c>
-      <c r="J4">
-        <v>12</v>
-      </c>
-      <c r="K4">
-        <v>11.808</v>
+        <v>4.5639830796728402</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.91987257951720802</v>
       </c>
       <c r="F5">
-        <v>0.88507168422046401</v>
+        <v>0.84095765633988007</v>
       </c>
       <c r="G5">
-        <v>0.57373574641553304</v>
+        <v>0.66170245959326601</v>
       </c>
       <c r="H5">
-        <v>0.49430976596873299</v>
+        <v>0.46642677842465902</v>
       </c>
       <c r="I5">
-        <v>4.4999999999999998E-7</v>
-      </c>
-      <c r="J5">
-        <v>29</v>
-      </c>
-      <c r="K5">
-        <v>13.049999999999999</v>
+        <v>14.00142011967066</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.96287457331215409</v>
       </c>
       <c r="F6">
-        <v>0.77231731452951402</v>
+        <v>0.87963815782882304</v>
       </c>
       <c r="G6">
-        <v>0.59924764557842103</v>
+        <v>0.79187095822174902</v>
       </c>
       <c r="H6">
-        <v>0.43909945338338302</v>
+        <v>0.59310664193986284</v>
       </c>
       <c r="I6">
-        <v>2.2499999999999999E-7</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>0.67500000000000004</v>
+        <v>75.604862172577683</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.93004786144347396</v>
+        <v>0.96984075690911709</v>
       </c>
       <c r="F7">
-        <v>0.89214329784258894</v>
+        <v>0.93556714367461713</v>
       </c>
       <c r="G7">
-        <v>0.610752080778867</v>
+        <v>0.87311768770129006</v>
       </c>
       <c r="H7">
-        <v>0.434785841626675</v>
+        <v>0.75591014078322993</v>
       </c>
       <c r="I7">
-        <v>5.5499999999999998E-7</v>
-      </c>
-      <c r="J7">
-        <v>23</v>
-      </c>
-      <c r="K7">
-        <v>12.764999999999999</v>
+        <v>11.3424431565834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.98645678341227805</v>
+      </c>
+      <c r="F8">
+        <v>0.97662385304670585</v>
+      </c>
+      <c r="G8">
+        <v>0.92809594331541911</v>
+      </c>
+      <c r="H8">
+        <v>0.84137261183425505</v>
+      </c>
+      <c r="I8">
+        <v>99.175758130627088</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K8" xr:uid="{AF59FE4A-B1E4-4CE4-9850-C8CB03D56E23}"/>
+  <autoFilter ref="A1:I8" xr:uid="{AF59FE4A-B1E4-4CE4-9850-C8CB03D56E23}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Program/test_data.xlsx
+++ b/Program/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Projects\Protein_turnover\Manuscript_JUMPt\GitHub_JUMPt\Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schepyal\Documents\GitHub\JUMPt\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15C149E-0627-46C7-B04F-E2DD3E0156E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070B53DD-2363-4C47-9B2B-6ACF9FDF78F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16425" yWindow="555" windowWidth="16485" windowHeight="11385" xr2:uid="{8E21D9E2-FF67-425E-B967-D28E133C51D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8E21D9E2-FF67-425E-B967-D28E133C51D0}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>GN</t>
   </si>
@@ -68,62 +68,38 @@
     <t>Name</t>
   </si>
   <si>
-    <t>sp|P35279|RAB6A_MOUSE</t>
-  </si>
-  <si>
-    <t>sp|Q9R1Q8|TAGL3_MOUSE</t>
-  </si>
-  <si>
-    <t>sp|P01942|HBA_MOUSE</t>
-  </si>
-  <si>
-    <t>sp|P10922|H10_MOUSE</t>
-  </si>
-  <si>
-    <t>sp|P04370|MBP_MOUSE</t>
-  </si>
-  <si>
-    <t>Rab6a</t>
-  </si>
-  <si>
-    <t>Tagln3</t>
-  </si>
-  <si>
-    <t>Hba</t>
-  </si>
-  <si>
-    <t>H1f0</t>
-  </si>
-  <si>
-    <t>Mbp</t>
-  </si>
-  <si>
-    <t>Ras-related protein Rab-6A OS=Mus musculus GN=Rab6a PE=1 SV=4</t>
-  </si>
-  <si>
-    <t>Transgelin-3 OS=Mus musculus GN=Tagln3 PE=1 SV=1</t>
-  </si>
-  <si>
-    <t>Hemoglobin subunit alpha OS=Mus musculus GN=Hba PE=1 SV=2</t>
-  </si>
-  <si>
-    <t>Histone H1.0 OS=Mus musculus GN=H1f0 PE=2 SV=4</t>
-  </si>
-  <si>
-    <t>Myelin basic protein OS=Mus musculus GN=Mbp PE=1 SV=2</t>
-  </si>
-  <si>
     <t>Concentration_microM</t>
+  </si>
+  <si>
+    <t>Protein-1</t>
+  </si>
+  <si>
+    <t>Protein-2</t>
+  </si>
+  <si>
+    <t>Protein-3</t>
+  </si>
+  <si>
+    <t>Protein-4</t>
+  </si>
+  <si>
+    <t>Protein-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -469,7 +445,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -556,13 +532,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -585,13 +561,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -614,13 +590,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -643,13 +619,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -672,13 +648,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -701,6 +677,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I8" xr:uid="{AF59FE4A-B1E4-4CE4-9850-C8CB03D56E23}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>

--- a/Program/test_data.xlsx
+++ b/Program/test_data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schepyal\Documents\GitHub\JUMPt\Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Projects\Protein_turnover\Manuscript_JUMPt\GitHub_JUMPt\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070B53DD-2363-4C47-9B2B-6ACF9FDF78F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198AB05F-36FF-40EA-A096-7BF036E4CFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8E21D9E2-FF67-425E-B967-D28E133C51D0}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8E21D9E2-FF67-425E-B967-D28E133C51D0}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$I$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>GN</t>
   </si>
@@ -47,9 +48,6 @@
     <t>Lysin</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>data_3</t>
   </si>
   <si>
@@ -68,38 +66,65 @@
     <t>Name</t>
   </si>
   <si>
+    <t>sp|P35279|RAB6A_MOUSE</t>
+  </si>
+  <si>
+    <t>sp|Q9R1Q8|TAGL3_MOUSE</t>
+  </si>
+  <si>
+    <t>sp|P01942|HBA_MOUSE</t>
+  </si>
+  <si>
+    <t>sp|P10922|H10_MOUSE</t>
+  </si>
+  <si>
+    <t>sp|P04370|MBP_MOUSE</t>
+  </si>
+  <si>
+    <t>Rab6a</t>
+  </si>
+  <si>
+    <t>Tagln3</t>
+  </si>
+  <si>
+    <t>Hba</t>
+  </si>
+  <si>
+    <t>H1f0</t>
+  </si>
+  <si>
+    <t>Mbp</t>
+  </si>
+  <si>
+    <t>Ras-related protein Rab-6A OS=Mus musculus GN=Rab6a PE=1 SV=4</t>
+  </si>
+  <si>
+    <t>Transgelin-3 OS=Mus musculus GN=Tagln3 PE=1 SV=1</t>
+  </si>
+  <si>
+    <t>Hemoglobin subunit alpha OS=Mus musculus GN=Hba PE=1 SV=2</t>
+  </si>
+  <si>
+    <t>Histone H1.0 OS=Mus musculus GN=H1f0 PE=2 SV=4</t>
+  </si>
+  <si>
+    <t>Myelin basic protein OS=Mus musculus GN=Mbp PE=1 SV=2</t>
+  </si>
+  <si>
     <t>Concentration_microM</t>
   </si>
   <si>
-    <t>Protein-1</t>
-  </si>
-  <si>
-    <t>Protein-2</t>
-  </si>
-  <si>
-    <t>Protein-3</t>
-  </si>
-  <si>
-    <t>Protein-4</t>
-  </si>
-  <si>
-    <t>Protein-5</t>
+    <t>Pulsing time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,16 +467,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60708A25-E96E-44AC-9249-EF904383A189}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
@@ -460,7 +486,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -469,27 +495,27 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
       <c r="I1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -535,150 +561,164 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.78085339829982203</v>
+        <v>0.96287457331215409</v>
       </c>
       <c r="F4">
-        <v>0.66871481277672207</v>
+        <v>0.87963815782882304</v>
       </c>
       <c r="G4">
-        <v>0.537937123700997</v>
+        <v>0.79187095822174902</v>
       </c>
       <c r="H4">
-        <v>0.36303097120455502</v>
+        <v>0.59310664193986284</v>
       </c>
       <c r="I4">
-        <v>4.5639830796728402</v>
+        <v>75.604862172577683</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.91987257951720802</v>
+        <v>0.78085339829982203</v>
       </c>
       <c r="F5">
-        <v>0.84095765633988007</v>
+        <v>0.66871481277672207</v>
       </c>
       <c r="G5">
-        <v>0.66170245959326601</v>
+        <v>0.537937123700997</v>
       </c>
       <c r="H5">
-        <v>0.46642677842465902</v>
+        <v>0.36303097120455502</v>
       </c>
       <c r="I5">
-        <v>14.00142011967066</v>
+        <v>4.5639830796728402</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.96287457331215409</v>
+        <v>0.96984075690911709</v>
       </c>
       <c r="F6">
-        <v>0.87963815782882304</v>
+        <v>0.93556714367461713</v>
       </c>
       <c r="G6">
-        <v>0.79187095822174902</v>
+        <v>0.87311768770129006</v>
       </c>
       <c r="H6">
-        <v>0.59310664193986284</v>
+        <v>0.75591014078322993</v>
       </c>
       <c r="I6">
-        <v>75.604862172577683</v>
+        <v>11.3424431565834</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.96984075690911709</v>
+        <v>0.91987257951720802</v>
       </c>
       <c r="F7">
-        <v>0.93556714367461713</v>
+        <v>0.84095765633988007</v>
       </c>
       <c r="G7">
-        <v>0.87311768770129006</v>
+        <v>0.66170245959326601</v>
       </c>
       <c r="H7">
-        <v>0.75591014078322993</v>
+        <v>0.46642677842465902</v>
       </c>
       <c r="I7">
-        <v>11.3424431565834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0.98645678341227805</v>
-      </c>
-      <c r="F8">
-        <v>0.97662385304670585</v>
-      </c>
-      <c r="G8">
-        <v>0.92809594331541911</v>
-      </c>
-      <c r="H8">
-        <v>0.84137261183425505</v>
-      </c>
-      <c r="I8">
-        <v>99.175758130627088</v>
+        <v>14.00142011967066</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I8" xr:uid="{AF59FE4A-B1E4-4CE4-9850-C8CB03D56E23}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:I7" xr:uid="{AF59FE4A-B1E4-4CE4-9850-C8CB03D56E23}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40B7CE9-BBE8-4DB8-BF5E-F3C5BF88F0F5}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>0.98645678341227805</v>
+      </c>
+      <c r="F1">
+        <v>0.97662385304670585</v>
+      </c>
+      <c r="G1">
+        <v>0.92809594331541911</v>
+      </c>
+      <c r="H1">
+        <v>0.84137261183425505</v>
+      </c>
+      <c r="I1">
+        <v>99.175758130627088</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/test_data.xlsx
+++ b/Program/test_data.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Projects\Protein_turnover\Manuscript_JUMPt\GitHub_JUMPt\Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schepyal\Documents\GitHub\JUMPt\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198AB05F-36FF-40EA-A096-7BF036E4CFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3163F297-56B7-4955-AF2B-B3899571BB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{8E21D9E2-FF67-425E-B967-D28E133C51D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E21D9E2-FF67-425E-B967-D28E133C51D0}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$I$6</definedName>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>GN</t>
   </si>
@@ -66,55 +65,910 @@
     <t>Name</t>
   </si>
   <si>
-    <t>sp|P35279|RAB6A_MOUSE</t>
-  </si>
-  <si>
-    <t>sp|Q9R1Q8|TAGL3_MOUSE</t>
-  </si>
-  <si>
-    <t>sp|P01942|HBA_MOUSE</t>
-  </si>
-  <si>
-    <t>sp|P10922|H10_MOUSE</t>
-  </si>
-  <si>
-    <t>sp|P04370|MBP_MOUSE</t>
-  </si>
-  <si>
-    <t>Rab6a</t>
-  </si>
-  <si>
-    <t>Tagln3</t>
-  </si>
-  <si>
-    <t>Hba</t>
-  </si>
-  <si>
-    <t>H1f0</t>
-  </si>
-  <si>
-    <t>Mbp</t>
-  </si>
-  <si>
-    <t>Ras-related protein Rab-6A OS=Mus musculus GN=Rab6a PE=1 SV=4</t>
-  </si>
-  <si>
-    <t>Transgelin-3 OS=Mus musculus GN=Tagln3 PE=1 SV=1</t>
-  </si>
-  <si>
-    <t>Hemoglobin subunit alpha OS=Mus musculus GN=Hba PE=1 SV=2</t>
-  </si>
-  <si>
-    <t>Histone H1.0 OS=Mus musculus GN=H1f0 PE=2 SV=4</t>
-  </si>
-  <si>
-    <t>Myelin basic protein OS=Mus musculus GN=Mbp PE=1 SV=2</t>
-  </si>
-  <si>
     <t>Concentration_microM</t>
   </si>
   <si>
     <t>Pulsing time</t>
+  </si>
+  <si>
+    <t>'Hk1'</t>
+  </si>
+  <si>
+    <t>'sp|P05202|AATM_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Got2'</t>
+  </si>
+  <si>
+    <t>'Aspartate aminotransferase, mitochondrial OS=Mus musculus GN=Got2 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9QXX4|CMC2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Slc25a13'</t>
+  </si>
+  <si>
+    <t>'Calcium-binding mitochondrial carrier protein Aralar2 OS=Mus musculus GN=Slc25a13 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9CR62|M2OM_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Slc25a11'</t>
+  </si>
+  <si>
+    <t>'Mitochondrial 2-oxoglutarate/malate carrier protein OS=Mus musculus GN=Slc25a11 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|P60879-2|SNP25_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Snap25'</t>
+  </si>
+  <si>
+    <t>'Isoform 2 of Synaptosomal-associated protein 25 OS=Mus musculus GN=Snap25'</t>
+  </si>
+  <si>
+    <t>'sp|P70297|STAM1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Stam'</t>
+  </si>
+  <si>
+    <t>'Signal transducing adapter molecule 1 OS=Mus musculus GN=Stam PE=2 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q61768|KINH_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Kif5b'</t>
+  </si>
+  <si>
+    <t>'Kinesin-1 heavy chain OS=Mus musculus GN=Kif5b PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'tr|E9Q912|E9Q912_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rap1gds1'</t>
+  </si>
+  <si>
+    <t>'Protein Rap1gds1 OS=Mus musculus GN=Rap1gds1 PE=4 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9R1T2|SAE1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Sae1'</t>
+  </si>
+  <si>
+    <t>'SUMO-activating enzyme subunit 1 OS=Mus musculus GN=Sae1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9QYR6|MAP1A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Map1a'</t>
+  </si>
+  <si>
+    <t>'Microtubule-associated protein 1A OS=Mus musculus GN=Map1a PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q9WV55|VAPA_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Vapa'</t>
+  </si>
+  <si>
+    <t>'Vesicle-associated membrane protein-associated protein A OS=Mus musculus GN=Vapa PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q02248|CTNB1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ctnnb1'</t>
+  </si>
+  <si>
+    <t>'Catenin beta-1 OS=Mus musculus GN=Ctnnb1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'tr|Q4VA93|Q4VA93_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Prkca'</t>
+  </si>
+  <si>
+    <t>'Protein kinase C OS=Mus musculus GN=Prkca PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9QZ06|TOLIP_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Tollip'</t>
+  </si>
+  <si>
+    <t>'Toll-interacting protein OS=Mus musculus GN=Tollip PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P68040|GBLP_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gnb2l1'</t>
+  </si>
+  <si>
+    <t>'Guanine nucleotide-binding protein subunit beta-2-like 1 OS=Mus musculus GN=Gnb2l1 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q3THK7|GUAA_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gmps'</t>
+  </si>
+  <si>
+    <t>'GMP synthase [glutamine-hydrolyzing] OS=Mus musculus GN=Gmps PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q8BHN3|GANAB_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ganab'</t>
+  </si>
+  <si>
+    <t>'Neutral alpha-glucosidase AB OS=Mus musculus GN=Ganab PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q91ZX7|LRP1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Lrp1'</t>
+  </si>
+  <si>
+    <t>'Prolow-density lipoprotein receptor-related protein 1 OS=Mus musculus GN=Lrp1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8C0C7|SYFA_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Farsa'</t>
+  </si>
+  <si>
+    <t>'Phenylalanine--tRNA ligase alpha subunit OS=Mus musculus GN=Farsa PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P49722|PSA2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Psma2'</t>
+  </si>
+  <si>
+    <t>'Proteasome subunit alpha type-2 OS=Mus musculus GN=Psma2 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|O54983|CRYM_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Crym'</t>
+  </si>
+  <si>
+    <t>'Ketimine reductase mu-crystallin OS=Mus musculus GN=Crym PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P62317|SMD2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Snrpd2'</t>
+  </si>
+  <si>
+    <t>'Small nuclear ribonucleoprotein Sm D2 OS=Mus musculus GN=Snrpd2 PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P57746|VATD_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Atp6v1d'</t>
+  </si>
+  <si>
+    <t>'V-type proton ATPase subunit D OS=Mus musculus GN=Atp6v1d PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P27048|RSMB_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Snrpb'</t>
+  </si>
+  <si>
+    <t>'Small nuclear ribonucleoprotein-associated protein B OS=Mus musculus GN=Snrpb PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P62911|RL32_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rpl32'</t>
+  </si>
+  <si>
+    <t>'60S ribosomal protein L32 OS=Mus musculus GN=Rpl32 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q9CPV4|GLOD4_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Glod4'</t>
+  </si>
+  <si>
+    <t>'Glyoxalase domain-containing protein 4 OS=Mus musculus GN=Glod4 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'Crmp1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8VEH3|ARL8A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Arl8a'</t>
+  </si>
+  <si>
+    <t>'ADP-ribosylation factor-like protein 8A OS=Mus musculus GN=Arl8a PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P97371|PSME1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Psme1'</t>
+  </si>
+  <si>
+    <t>'Proteasome activator complex subunit 1 OS=Mus musculus GN=Psme1 PE=2 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q99L43|CDS2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Cds2'</t>
+  </si>
+  <si>
+    <t>'Phosphatidate cytidylyltransferase 2 OS=Mus musculus GN=Cds2 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9QUM9|PSA6_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Psma6'</t>
+  </si>
+  <si>
+    <t>'Proteasome subunit alpha type-6 OS=Mus musculus GN=Psma6 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q99MI1|RB6I2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Erc1'</t>
+  </si>
+  <si>
+    <t>'ELKS/Rab6-interacting/CAST family member 1 OS=Mus musculus GN=Erc1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8VDW0|DX39A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ddx39a'</t>
+  </si>
+  <si>
+    <t>'ATP-dependent RNA helicase DDX39A OS=Mus musculus GN=Ddx39a PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q91V14|S12A5_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Slc12a5'</t>
+  </si>
+  <si>
+    <t>'Solute carrier family 12 member 5 OS=Mus musculus GN=Slc12a5 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P52480-2|KPYM_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Pkm'</t>
+  </si>
+  <si>
+    <t>'Isoform M1 of Pyruvate kinase PKM OS=Mus musculus GN=Pkm'</t>
+  </si>
+  <si>
+    <t>'sp|P97952|SCN1B_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Scn1b'</t>
+  </si>
+  <si>
+    <t>'Sodium channel subunit beta-1 OS=Mus musculus GN=Scn1b PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8CHG7|RPGF2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rapgef2'</t>
+  </si>
+  <si>
+    <t>'Rap guanine nucleotide exchange factor 2 OS=Mus musculus GN=Rapgef2 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P63101|1433Z_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ywhaz'</t>
+  </si>
+  <si>
+    <t>'14-3-3 protein zeta/delta OS=Mus musculus GN=Ywhaz PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8CGY8|OGT1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ogt'</t>
+  </si>
+  <si>
+    <t>'UDP-N-acetylglucosamine--peptide N-acetylglucosaminyltransferase 110 kDa subunit OS=Mus musculus GN=Ogt PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q9CQ92|FIS1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Fis1'</t>
+  </si>
+  <si>
+    <t>'Mitochondrial fission 1 protein OS=Mus musculus GN=Fis1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9DBJ1|PGAM1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Pgam1'</t>
+  </si>
+  <si>
+    <t>'Phosphoglycerate mutase 1 OS=Mus musculus GN=Pgam1 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q9QUI0|RHOA_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rhoa'</t>
+  </si>
+  <si>
+    <t>'Transforming protein RhoA OS=Mus musculus GN=Rhoa PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P63024|VAMP3_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Vamp3'</t>
+  </si>
+  <si>
+    <t>'Vesicle-associated membrane protein 3 OS=Mus musculus GN=Vamp3 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9R0Q6|ARC1A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Arpc1a'</t>
+  </si>
+  <si>
+    <t>'Actin-related protein 2/3 complex subunit 1A OS=Mus musculus GN=Arpc1a PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P61161|ARP2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Actr2'</t>
+  </si>
+  <si>
+    <t>'Actin-related protein 2 OS=Mus musculus GN=Actr2 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|O35643|AP1B1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ap1b1'</t>
+  </si>
+  <si>
+    <t>'AP-1 complex subunit beta-1 OS=Mus musculus GN=Ap1b1 PE=2 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q6GQS1|SCMC3_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Slc25a23'</t>
+  </si>
+  <si>
+    <t>'Calcium-binding mitochondrial carrier protein SCaMC-3 OS=Mus musculus GN=Slc25a23 PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9CZW5|TOM70_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Tomm70a'</t>
+  </si>
+  <si>
+    <t>'Mitochondrial import receptor subunit TOM70 OS=Mus musculus GN=Tomm70a PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P35802|GPM6A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gpm6a'</t>
+  </si>
+  <si>
+    <t>'Neuronal membrane glycoprotein M6-a OS=Mus musculus GN=Gpm6a PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8CHH9|SEPT8_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Sept8'</t>
+  </si>
+  <si>
+    <t>'Septin-8 OS=Mus musculus GN=Sept8 PE=1 SV=4'</t>
+  </si>
+  <si>
+    <t>'sp|P21107-2|TPM3_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Tpm3'</t>
+  </si>
+  <si>
+    <t>'Isoform 2 of Tropomyosin alpha-3 chain OS=Mus musculus GN=Tpm3'</t>
+  </si>
+  <si>
+    <t>'sp|P12960|CNTN1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Cntn1'</t>
+  </si>
+  <si>
+    <t>'Contactin-1 OS=Mus musculus GN=Cntn1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q64332-2|SYN2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Syn2'</t>
+  </si>
+  <si>
+    <t>'Isoform IIb of Synapsin-2 OS=Mus musculus GN=Syn2'</t>
+  </si>
+  <si>
+    <t>'sp|O09167|RL21_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rpl21'</t>
+  </si>
+  <si>
+    <t>'60S ribosomal protein L21 OS=Mus musculus GN=Rpl21 PE=2 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|P29387|GBB4_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gnb4'</t>
+  </si>
+  <si>
+    <t>'Guanine nucleotide-binding protein subunit beta-4 OS=Mus musculus GN=Gnb4 PE=2 SV=4'</t>
+  </si>
+  <si>
+    <t>'sp|P17710|HXK1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Hexokinase-1 OS=Mus musculus GN=Hk1 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|P68368|TBA4A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Tuba4a'</t>
+  </si>
+  <si>
+    <t>'Tubulin alpha-4A chain OS=Mus musculus GN=Tuba4a PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P03921|NU5M_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Mtnd5'</t>
+  </si>
+  <si>
+    <t>'NADH-ubiquinone oxidoreductase chain 5 OS=Mus musculus GN=Mtnd5 PE=3 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P58252|EF2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Eef2'</t>
+  </si>
+  <si>
+    <t>'Elongation factor 2 OS=Mus musculus GN=Eef2 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P11031|TCP4_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Sub1'</t>
+  </si>
+  <si>
+    <t>'Activated RNA polymerase II transcriptional coactivator p15 OS=Mus musculus GN=Sub1 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|P60840|ENSA_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ensa'</t>
+  </si>
+  <si>
+    <t>'Alpha-endosulfine OS=Mus musculus GN=Ensa PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P84075|HPCA_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Hpca'</t>
+  </si>
+  <si>
+    <t>'Neuron-specific calcium-binding protein hippocalcin OS=Mus musculus GN=Hpca PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'tr|E9Q035|E9Q035_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gm20425'</t>
+  </si>
+  <si>
+    <t>'Protein Gm20425 OS=Mus musculus GN=Gm20425 PE=4 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P08113|ENPL_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Hsp90b1'</t>
+  </si>
+  <si>
+    <t>'Endoplasmin OS=Mus musculus GN=Hsp90b1 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P14211|CALR_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Calr'</t>
+  </si>
+  <si>
+    <t>'Calreticulin OS=Mus musculus GN=Calr PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P54726|RD23A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rad23a'</t>
+  </si>
+  <si>
+    <t>'UV excision repair protein RAD23 homolog A OS=Mus musculus GN=Rad23a PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'tr|J3KMQ2|J3KMQ2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gm5422'</t>
+  </si>
+  <si>
+    <t>'Uncharacterized protein OS=Mus musculus GN=Gm5422 PE=4 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8BP92|RCN2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rcn2'</t>
+  </si>
+  <si>
+    <t>'Reticulocalbin-2 OS=Mus musculus GN=Rcn2 PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|O70493|SNX12_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Snx12'</t>
+  </si>
+  <si>
+    <t>'Sorting nexin-12 OS=Mus musculus GN=Snx12 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9Z2U1|PSA5_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Psma5'</t>
+  </si>
+  <si>
+    <t>'Proteasome subunit alpha type-5 OS=Mus musculus GN=Psma5 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'tr|Q91V89|Q91V89_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ppp2r5d'</t>
+  </si>
+  <si>
+    <t>'Protein Ppp2r5d OS=Mus musculus GN=Ppp2r5d PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q04690|NF1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Nf1'</t>
+  </si>
+  <si>
+    <t>'Neurofibromin OS=Mus musculus GN=Nf1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9DBG6|RPN2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rpn2'</t>
+  </si>
+  <si>
+    <t>'Dolichyl-diphosphooligosaccharide--protein glycosyltransferase subunit 2 OS=Mus musculus GN=Rpn2 PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q923T9|KCC2G_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Camk2g'</t>
+  </si>
+  <si>
+    <t>'Calcium/calmodulin-dependent protein kinase type II subunit gamma OS=Mus musculus GN=Camk2g PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8BL66|EEA1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Eea1'</t>
+  </si>
+  <si>
+    <t>'Early endosome antigen 1 OS=Mus musculus GN=Eea1 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q3UH60|DIP2B_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Dip2b'</t>
+  </si>
+  <si>
+    <t>'Disco-interacting protein 2 homolog B OS=Mus musculus GN=Dip2b PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9R1P3|PSB2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Psmb2'</t>
+  </si>
+  <si>
+    <t>'Proteasome subunit beta type-2 OS=Mus musculus GN=Psmb2 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9R0P5|DEST_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Dstn'</t>
+  </si>
+  <si>
+    <t>'Destrin OS=Mus musculus GN=Dstn PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q9R1P4|PSA1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Psma1'</t>
+  </si>
+  <si>
+    <t>'Proteasome subunit alpha type-1 OS=Mus musculus GN=Psma1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q02053|UBA1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Uba1'</t>
+  </si>
+  <si>
+    <t>'Ubiquitin-like modifier-activating enzyme 1 OS=Mus musculus GN=Uba1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8BH58|TIPRL_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Tiprl'</t>
+  </si>
+  <si>
+    <t>'TIP41-like protein OS=Mus musculus GN=Tiprl PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P16460|ASSY_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ass1'</t>
+  </si>
+  <si>
+    <t>'Argininosuccinate synthase OS=Mus musculus GN=Ass1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P14869|RLA0_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rplp0'</t>
+  </si>
+  <si>
+    <t>'60S acidic ribosomal protein P0 OS=Mus musculus GN=Rplp0 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|P62259|1433E_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ywhae'</t>
+  </si>
+  <si>
+    <t>'14-3-3 protein epsilon OS=Mus musculus GN=Ywhae PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P48758|CBR1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Cbr1'</t>
+  </si>
+  <si>
+    <t>'Carbonyl reductase [NADPH] 1 OS=Mus musculus GN=Cbr1 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'tr|Q8C5R8|Q8C5R8_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Prps1l1'</t>
+  </si>
+  <si>
+    <t>'Protein Prps1l1 OS=Mus musculus GN=Prps1l1 PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9CQM5|TXD17_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Txndc17'</t>
+  </si>
+  <si>
+    <t>'Thioredoxin domain-containing protein 17 OS=Mus musculus GN=Txndc17 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q91XM9|DLG2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Dlg2'</t>
+  </si>
+  <si>
+    <t>'Disks large homolog 2 OS=Mus musculus GN=Dlg2 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q9WTM5|RUVB2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ruvbl2'</t>
+  </si>
+  <si>
+    <t>'RuvB-like 2 OS=Mus musculus GN=Ruvbl2 PE=2 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q9ESN6|TRIM2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Trim2'</t>
+  </si>
+  <si>
+    <t>'Tripartite motif-containing protein 2 OS=Mus musculus GN=Trim2 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q60902|EP15R_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Eps15l1'</t>
+  </si>
+  <si>
+    <t>'Epidermal growth factor receptor substrate 15-like 1 OS=Mus musculus GN=Eps15l1 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q8K183|PDXK_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Pdxk'</t>
+  </si>
+  <si>
+    <t>'Pyridoxal kinase OS=Mus musculus GN=Pdxk PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P70296|PEBP1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Pebp1'</t>
+  </si>
+  <si>
+    <t>'Phosphatidylethanolamine-binding protein 1 OS=Mus musculus GN=Pebp1 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q6PIC6|AT1A3_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Atp1a3'</t>
+  </si>
+  <si>
+    <t>'Sodium/potassium-transporting ATPase subunit alpha-3 OS=Mus musculus GN=Atp1a3 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9DBF1|AL7A1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Aldh7a1'</t>
+  </si>
+  <si>
+    <t>'Alpha-aminoadipic semialdehyde dehydrogenase OS=Mus musculus GN=Aldh7a1 PE=1 SV=4'</t>
+  </si>
+  <si>
+    <t>'sp|P52760|UK114_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Hrsp12'</t>
+  </si>
+  <si>
+    <t>'Ribonuclease UK114 OS=Mus musculus GN=Hrsp12 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|O08539|BIN1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Bin1'</t>
+  </si>
+  <si>
+    <t>'Myc box-dependent-interacting protein 1 OS=Mus musculus GN=Bin1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9DCZ4|APOO_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Apoo'</t>
+  </si>
+  <si>
+    <t>'Apolipoprotein O OS=Mus musculus GN=Apoo PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'tr|A2AFQ2|A2AFQ2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Hsd17b10'</t>
+  </si>
+  <si>
+    <t>'3-hydroxyacyl-CoA dehydrogenase type-2 OS=Mus musculus GN=Hsd17b10 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9JJZ2|TBA8_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Tuba8'</t>
+  </si>
+  <si>
+    <t>'Tubulin alpha-8 chain OS=Mus musculus GN=Tuba8 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P97427|DPYL1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Dihydropyrimidinase-related protein 1 OS=Mus musculus GN=Crmp1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9WUM5|SUCA_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Suclg1'</t>
+  </si>
+  <si>
+    <t>'Succinyl-CoA ligase [ADP/GDP-forming] subunit alpha, mitochondrial OS=Mus musculus GN=Suclg1 PE=1 SV=4'</t>
   </si>
 </sst>
 </file>
@@ -467,11 +1321,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60708A25-E96E-44AC-9249-EF904383A189}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,12 +1364,12 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -558,118 +1412,2902 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.96287457331215409</v>
+        <v>0.85536672149175397</v>
       </c>
       <c r="F4">
-        <v>0.87963815782882304</v>
+        <v>0.81077375192756895</v>
       </c>
       <c r="G4">
-        <v>0.79187095822174902</v>
+        <v>0.54554369216283805</v>
       </c>
       <c r="H4">
-        <v>0.59310664193986284</v>
+        <v>0.42929568450125899</v>
       </c>
       <c r="I4">
-        <v>75.604862172577683</v>
+        <v>3.0786631425012101</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0.78085339829982203</v>
+        <v>0.91349853827342697</v>
       </c>
       <c r="F5">
-        <v>0.66871481277672207</v>
+        <v>0.80971652227782598</v>
       </c>
       <c r="G5">
-        <v>0.537937123700997</v>
+        <v>0.52795432705135403</v>
       </c>
       <c r="H5">
-        <v>0.36303097120455502</v>
+        <v>0.43627908364215801</v>
       </c>
       <c r="I5">
-        <v>4.5639830796728402</v>
+        <v>3.4704929970013598</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.96984075690911709</v>
+        <v>0.90065788231874799</v>
       </c>
       <c r="F6">
-        <v>0.93556714367461713</v>
+        <v>0.76266227388507002</v>
       </c>
       <c r="G6">
-        <v>0.87311768770129006</v>
+        <v>0.61210885103386503</v>
       </c>
       <c r="H6">
-        <v>0.75591014078322993</v>
+        <v>0.40861302931543603</v>
       </c>
       <c r="I6">
-        <v>11.3424431565834</v>
+        <v>2.3412055932152001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0.89251687912699595</v>
+      </c>
+      <c r="F7">
+        <v>0.77007161128416901</v>
+      </c>
+      <c r="G7">
+        <v>0.64042325163261304</v>
+      </c>
+      <c r="H7">
+        <v>0.39769119189420998</v>
+      </c>
+      <c r="I7">
+        <v>5.0074922476894601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.94249890776927403</v>
+      </c>
+      <c r="F8">
+        <v>0.88164445726698504</v>
+      </c>
+      <c r="G8">
+        <v>0.54795181799076498</v>
+      </c>
+      <c r="H8">
+        <v>0.41008999424528603</v>
+      </c>
+      <c r="I8">
+        <v>10.704811770438001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0.86741060502048595</v>
+      </c>
+      <c r="F9">
+        <v>0.81982130558913402</v>
+      </c>
+      <c r="G9">
+        <v>0.67085137094699099</v>
+      </c>
+      <c r="H9">
+        <v>0.37102157310748302</v>
+      </c>
+      <c r="I9">
+        <v>2.9273774843930398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0.91250468369681303</v>
+      </c>
+      <c r="F10">
+        <v>0.83262610926182001</v>
+      </c>
+      <c r="G10">
+        <v>0.62244085778329905</v>
+      </c>
+      <c r="H10">
+        <v>0.39126670307315098</v>
+      </c>
+      <c r="I10">
+        <v>10.9433852745815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0.91995129639421103</v>
+      </c>
+      <c r="F11">
+        <v>0.82351667996744005</v>
+      </c>
+      <c r="G11">
+        <v>0.590407088946028</v>
+      </c>
+      <c r="H11">
+        <v>0.42413353050343999</v>
+      </c>
+      <c r="I11">
+        <v>62.2475155217289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0.887561476517575</v>
+      </c>
+      <c r="F12">
+        <v>0.77512716510417601</v>
+      </c>
+      <c r="G12">
+        <v>0.62950960941422396</v>
+      </c>
+      <c r="H12">
+        <v>0.44910265986320003</v>
+      </c>
+      <c r="I12">
+        <v>1.73174801765693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0.84602704987857202</v>
+      </c>
+      <c r="F13">
+        <v>0.83925940087367201</v>
+      </c>
+      <c r="G13">
+        <v>0.674350592336599</v>
+      </c>
+      <c r="H13">
+        <v>0.399762611247998</v>
+      </c>
+      <c r="I13">
+        <v>9.5667548890946499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0.92542998390708997</v>
+      </c>
+      <c r="F14">
+        <v>0.82861241221516502</v>
+      </c>
+      <c r="G14">
+        <v>0.62931546185882004</v>
+      </c>
+      <c r="H14">
+        <v>0.42902346941347402</v>
+      </c>
+      <c r="I14">
+        <v>62.952374139155097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0.876932143296968</v>
+      </c>
+      <c r="F15">
+        <v>0.81827907100119501</v>
+      </c>
+      <c r="G15">
+        <v>0.64579495580721302</v>
+      </c>
+      <c r="H15">
+        <v>0.44240783164930703</v>
+      </c>
+      <c r="I15">
+        <v>10.121240381336801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0.92512670160707799</v>
+      </c>
+      <c r="F16">
+        <v>0.81503063840060697</v>
+      </c>
+      <c r="G16">
+        <v>0.67685225724764797</v>
+      </c>
+      <c r="H16">
+        <v>0.41710410253615399</v>
+      </c>
+      <c r="I16">
+        <v>1.78224495813749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.92358391313629296</v>
+      </c>
+      <c r="F17">
+        <v>0.84722807464822802</v>
+      </c>
+      <c r="G17">
+        <v>0.630956625983212</v>
+      </c>
+      <c r="H17">
+        <v>0.45959061001090501</v>
+      </c>
+      <c r="I17">
+        <v>18.623388517753199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0.94025039977583802</v>
+      </c>
+      <c r="F18">
+        <v>0.82531599082958895</v>
+      </c>
+      <c r="G18">
+        <v>0.62716767125619699</v>
+      </c>
+      <c r="H18">
+        <v>0.49099107114297003</v>
+      </c>
+      <c r="I18">
+        <v>7.2234088112073698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0.91408288318392905</v>
+      </c>
+      <c r="F19">
+        <v>0.86515603087249404</v>
+      </c>
+      <c r="G19">
+        <v>0.62991182846841498</v>
+      </c>
+      <c r="H19">
+        <v>0.49304586045012899</v>
+      </c>
+      <c r="I19">
+        <v>6.9658640800027296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0.93257849931269998</v>
+      </c>
+      <c r="F20">
+        <v>0.89361923552492495</v>
+      </c>
+      <c r="G20">
+        <v>0.73758789609462705</v>
+      </c>
+      <c r="H20">
+        <v>0.41989446040893702</v>
+      </c>
+      <c r="I20">
+        <v>7.8476035465901504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0.94673301282325595</v>
+      </c>
+      <c r="F21">
+        <v>0.87638548962846996</v>
+      </c>
+      <c r="G21">
+        <v>0.65724197833456899</v>
+      </c>
+      <c r="H21">
+        <v>0.494700966789758</v>
+      </c>
+      <c r="I21">
+        <v>9.2484592602140197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.93992063231732204</v>
+      </c>
+      <c r="F22">
+        <v>0.87284304425388903</v>
+      </c>
+      <c r="G22">
+        <v>0.66640108718640001</v>
+      </c>
+      <c r="H22">
+        <v>0.50954528294682</v>
+      </c>
+      <c r="I22">
+        <v>26.480062173652001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0.92930472302660005</v>
+      </c>
+      <c r="F23">
+        <v>0.88066483768114501</v>
+      </c>
+      <c r="G23">
+        <v>0.64931640640627497</v>
+      </c>
+      <c r="H23">
+        <v>0.54615261645127899</v>
+      </c>
+      <c r="I23">
+        <v>1.3394183801791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0.94766434694997304</v>
+      </c>
+      <c r="F24">
+        <v>0.88435187559814199</v>
+      </c>
+      <c r="G24">
+        <v>0.73618289672373705</v>
+      </c>
+      <c r="H24">
+        <v>0.51411828543778804</v>
+      </c>
+      <c r="I24">
+        <v>21.842920143948401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0.95402018468607597</v>
+      </c>
+      <c r="F25">
+        <v>0.89707999205467504</v>
+      </c>
+      <c r="G25">
+        <v>0.69654388893843</v>
+      </c>
+      <c r="H25">
+        <v>0.54971209286021605</v>
+      </c>
+      <c r="I25">
+        <v>10.979847571158199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0.94164555973087205</v>
+      </c>
+      <c r="F26">
+        <v>0.86393724978085396</v>
+      </c>
+      <c r="G26">
+        <v>0.74369353639272495</v>
+      </c>
+      <c r="H26">
+        <v>0.55032302520037701</v>
+      </c>
+      <c r="I26">
+        <v>13.330733093320401</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0.93683645461211096</v>
+      </c>
+      <c r="F27">
+        <v>0.85739825602327302</v>
+      </c>
+      <c r="G27">
+        <v>0.746027770390158</v>
+      </c>
+      <c r="H27">
+        <v>0.56535331431942903</v>
+      </c>
+      <c r="I27">
+        <v>9.7122738371090698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.92682448166461995</v>
+      </c>
+      <c r="F28">
+        <v>0.892866010427253</v>
+      </c>
+      <c r="G28">
+        <v>0.72402432583968601</v>
+      </c>
+      <c r="H28">
+        <v>0.57930039764430497</v>
+      </c>
+      <c r="I28">
+        <v>30.4471067267332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0.95821868168105695</v>
+      </c>
+      <c r="F29">
+        <v>0.88731540465867198</v>
+      </c>
+      <c r="G29">
+        <v>0.72493743375191599</v>
+      </c>
+      <c r="H29">
+        <v>0.583567866966342</v>
+      </c>
+      <c r="I29">
+        <v>40.119645387915703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0.92271295658513397</v>
+      </c>
+      <c r="F30">
+        <v>0.86706332983256496</v>
+      </c>
+      <c r="G30">
+        <v>0.81318537247316203</v>
+      </c>
+      <c r="H30">
+        <v>0.56184550736657102</v>
+      </c>
+      <c r="I30">
+        <v>3.0450777264011899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0.96888225666494099</v>
+      </c>
+      <c r="F31">
+        <v>0.92313536132498897</v>
+      </c>
+      <c r="G31">
+        <v>0.74648388850593395</v>
+      </c>
+      <c r="H31">
+        <v>0.63910033219015805</v>
+      </c>
+      <c r="I31">
+        <v>4.97377242667568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0.96102089986140105</v>
+      </c>
+      <c r="F32">
+        <v>0.92673752902908102</v>
+      </c>
+      <c r="G32">
+        <v>0.80907637053947801</v>
+      </c>
+      <c r="H32">
+        <v>0.63228097129792205</v>
+      </c>
+      <c r="I32">
+        <v>48.754491835546197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0.96840969739453797</v>
+      </c>
+      <c r="F33">
+        <v>0.93231505045837404</v>
+      </c>
+      <c r="G33">
+        <v>0.83179644679265696</v>
+      </c>
+      <c r="H33">
+        <v>0.623606334388494</v>
+      </c>
+      <c r="I33">
+        <v>80.248789681395095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0.94571997058281398</v>
+      </c>
+      <c r="F34">
+        <v>0.91885826653068703</v>
+      </c>
+      <c r="G34">
+        <v>0.89171866926677601</v>
+      </c>
+      <c r="H34">
+        <v>0.67726428969117003</v>
+      </c>
+      <c r="I34">
+        <v>1.6093011881256301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0.81583863291494796</v>
+      </c>
+      <c r="F35">
+        <v>0.66542893945023796</v>
+      </c>
+      <c r="G35">
+        <v>0.52856718343151399</v>
+      </c>
+      <c r="H35">
+        <v>0.36325916312604301</v>
+      </c>
+      <c r="I35">
+        <v>29.396613007475601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0.90535157269418298</v>
+      </c>
+      <c r="F36">
+        <v>0.67282156125966797</v>
+      </c>
+      <c r="G36">
+        <v>0.51842746805851803</v>
+      </c>
+      <c r="H36">
+        <v>0.35081617882830002</v>
+      </c>
+      <c r="I36">
+        <v>6.9939195302473003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0.80099030940132598</v>
+      </c>
+      <c r="F37">
+        <v>0.67665012421486603</v>
+      </c>
+      <c r="G37">
+        <v>0.55366670906776505</v>
+      </c>
+      <c r="H37">
+        <v>0.36669652828206001</v>
+      </c>
+      <c r="I37">
+        <v>5.7482731401945601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>0.85511571635672701</v>
+      </c>
+      <c r="F38">
+        <v>0.695993180423647</v>
+      </c>
+      <c r="G38">
+        <v>0.52073025722685395</v>
+      </c>
+      <c r="H38">
+        <v>0.37836832111948798</v>
+      </c>
+      <c r="I38">
+        <v>5.6637224423203998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0.778258892455022</v>
+      </c>
+      <c r="F39">
+        <v>0.69085398653387098</v>
+      </c>
+      <c r="G39">
+        <v>0.56351278510775504</v>
+      </c>
+      <c r="H39">
+        <v>0.38871768978809002</v>
+      </c>
+      <c r="I39">
+        <v>14.4854454770201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0.88282520506436302</v>
+      </c>
+      <c r="F40">
+        <v>0.74012031864242001</v>
+      </c>
+      <c r="G40">
+        <v>0.52881538430033304</v>
+      </c>
+      <c r="H40">
+        <v>0.36600937817020401</v>
+      </c>
+      <c r="I40">
+        <v>18.4596494070997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0.90394530547969398</v>
+      </c>
+      <c r="F41">
+        <v>0.75289177014108</v>
+      </c>
+      <c r="G41">
+        <v>0.53314694391559803</v>
+      </c>
+      <c r="H41">
+        <v>0.37107399024256799</v>
+      </c>
+      <c r="I41">
+        <v>17.362668887467699</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0.82971499265395299</v>
+      </c>
+      <c r="F42">
+        <v>0.72415622314345496</v>
+      </c>
+      <c r="G42">
+        <v>0.502324128718458</v>
+      </c>
+      <c r="H42">
+        <v>0.44546105863270702</v>
+      </c>
+      <c r="I42">
+        <v>2.9439068433344899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0.88686890612976799</v>
+      </c>
+      <c r="F43">
+        <v>0.72858716147959302</v>
+      </c>
+      <c r="G43">
+        <v>0.52474674681693201</v>
+      </c>
+      <c r="H43">
+        <v>0.41112891530955198</v>
+      </c>
+      <c r="I43">
+        <v>0.18482474099999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0.84564115422765296</v>
+      </c>
+      <c r="F44">
+        <v>0.82486577940889405</v>
+      </c>
+      <c r="G44">
+        <v>0.53215738958756498</v>
+      </c>
+      <c r="H44">
+        <v>0.37626781738218301</v>
+      </c>
+      <c r="I44">
+        <v>2.8536628058834701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0.90708346389982397</v>
+      </c>
+      <c r="F45">
+        <v>0.73617635106363899</v>
+      </c>
+      <c r="G45">
+        <v>0.55854825736261204</v>
+      </c>
+      <c r="H45">
+        <v>0.39203816537286801</v>
+      </c>
+      <c r="I45">
+        <v>1.5877720752410101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0.88580359135036102</v>
+      </c>
+      <c r="F46">
+        <v>0.75357914059533304</v>
+      </c>
+      <c r="G46">
+        <v>0.57191034810416197</v>
+      </c>
+      <c r="H46">
+        <v>0.383182189980453</v>
+      </c>
+      <c r="I46">
+        <v>6.2039726962524302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0.85423292673231099</v>
+      </c>
+      <c r="F47">
+        <v>0.83277691333172499</v>
+      </c>
+      <c r="G47">
+        <v>0.54228345927348398</v>
+      </c>
+      <c r="H47">
+        <v>0.400944823975385</v>
+      </c>
+      <c r="I47">
+        <v>7.7048895758853702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" t="s">
+        <v>221</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0.83480448653658201</v>
+      </c>
+      <c r="F48">
+        <v>0.80512062884240498</v>
+      </c>
+      <c r="G48">
+        <v>0.63480611005491105</v>
+      </c>
+      <c r="H48">
+        <v>0.350176342326463</v>
+      </c>
+      <c r="I48">
+        <v>13.8300166481822</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" t="s">
+        <v>224</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0.80620488713530003</v>
+      </c>
+      <c r="F49">
+        <v>0.78308005647824297</v>
+      </c>
+      <c r="G49">
+        <v>0.57638939519886401</v>
+      </c>
+      <c r="H49">
+        <v>0.42703296715399702</v>
+      </c>
+      <c r="I49">
+        <v>4.6210368710072496</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0.905014118983681</v>
+      </c>
+      <c r="F50">
+        <v>0.79551746364571896</v>
+      </c>
+      <c r="G50">
+        <v>0.61071031824756095</v>
+      </c>
+      <c r="H50">
+        <v>0.37018257174166502</v>
+      </c>
+      <c r="I50">
+        <v>26.496770086950001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0.89289341965123104</v>
+      </c>
+      <c r="F51">
+        <v>0.84580286579113295</v>
+      </c>
+      <c r="G51">
+        <v>0.58689546095877698</v>
+      </c>
+      <c r="H51">
+        <v>0.38347683085949702</v>
+      </c>
+      <c r="I51">
+        <v>19.073576207371101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0.84911413650355105</v>
+      </c>
+      <c r="F52">
+        <v>0.77053762157813399</v>
+      </c>
+      <c r="G52">
+        <v>0.55343000308305501</v>
+      </c>
+      <c r="H52">
+        <v>0.46600988487890999</v>
+      </c>
+      <c r="I52">
+        <v>9.0387796888380603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0.94558618272211403</v>
+      </c>
+      <c r="F53">
+        <v>0.83175984465170605</v>
+      </c>
+      <c r="G53">
+        <v>0.60213555461266699</v>
+      </c>
+      <c r="H53">
+        <v>0.37856212571613601</v>
+      </c>
+      <c r="I53">
+        <v>2.9602530216357801</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" t="s">
+        <v>239</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0.90778849011785401</v>
+      </c>
+      <c r="F54">
+        <v>0.82577377419599596</v>
+      </c>
+      <c r="G54">
+        <v>0.57781294709411002</v>
+      </c>
+      <c r="H54">
+        <v>0.42840906463915102</v>
+      </c>
+      <c r="I54">
+        <v>12.699485462817499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0.93201468169323598</v>
+      </c>
+      <c r="F55">
+        <v>0.82784215360972702</v>
+      </c>
+      <c r="G55">
+        <v>0.61714239004231597</v>
+      </c>
+      <c r="H55">
+        <v>0.39803702840860899</v>
+      </c>
+      <c r="I55">
+        <v>5.6639811897479797</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0.91473042376727098</v>
+      </c>
+      <c r="F56">
+        <v>0.82663575749554197</v>
+      </c>
+      <c r="G56">
+        <v>0.59266098374720899</v>
+      </c>
+      <c r="H56">
+        <v>0.435334500835656</v>
+      </c>
+      <c r="I56">
+        <v>29.772645501774001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0.97296980774506503</v>
+      </c>
+      <c r="F57">
+        <v>0.85540712858134205</v>
+      </c>
+      <c r="G57">
+        <v>0.57775335588730703</v>
+      </c>
+      <c r="H57">
+        <v>0.42702954474058102</v>
+      </c>
+      <c r="I57">
+        <v>2.4739257395098999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0.92644576804206602</v>
+      </c>
+      <c r="F58">
+        <v>0.78087662215541498</v>
+      </c>
+      <c r="G58">
+        <v>0.63437866492692496</v>
+      </c>
+      <c r="H58">
+        <v>0.445580884141976</v>
+      </c>
+      <c r="I58">
+        <v>5.8613009828388298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>252</v>
+      </c>
+      <c r="B59" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" t="s">
+        <v>254</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0.93066795110534695</v>
+      </c>
+      <c r="F59">
+        <v>0.82738088435294299</v>
+      </c>
+      <c r="G59">
+        <v>0.637008709514848</v>
+      </c>
+      <c r="H59">
+        <v>0.43186465044580202</v>
+      </c>
+      <c r="I59">
+        <v>2.6947757850517302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>255</v>
+      </c>
+      <c r="B60" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0.93126465000514203</v>
+      </c>
+      <c r="F60">
+        <v>0.84609340388648901</v>
+      </c>
+      <c r="G60">
+        <v>0.63176960609626398</v>
+      </c>
+      <c r="H60">
+        <v>0.43964948266642701</v>
+      </c>
+      <c r="I60">
+        <v>54.351609998472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0.92453770690132397</v>
+      </c>
+      <c r="F61">
+        <v>0.87119672445544305</v>
+      </c>
+      <c r="G61">
+        <v>0.62365049906502201</v>
+      </c>
+      <c r="H61">
+        <v>0.442546096860018</v>
+      </c>
+      <c r="I61">
+        <v>7.5106626721548402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>261</v>
+      </c>
+      <c r="B62" t="s">
+        <v>262</v>
+      </c>
+      <c r="C62" t="s">
+        <v>263</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0.93720650875553602</v>
+      </c>
+      <c r="F62">
+        <v>0.86060408512220599</v>
+      </c>
+      <c r="G62">
+        <v>0.64376242334389</v>
+      </c>
+      <c r="H62">
+        <v>0.44008535372613899</v>
+      </c>
+      <c r="I62">
+        <v>2.28080064559791</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0.94472380119273103</v>
+      </c>
+      <c r="F63">
+        <v>0.879351711265835</v>
+      </c>
+      <c r="G63">
+        <v>0.63179063794434798</v>
+      </c>
+      <c r="H63">
+        <v>0.45006352163918101</v>
+      </c>
+      <c r="I63">
+        <v>1.0573186550004099</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>267</v>
+      </c>
+      <c r="B64" t="s">
+        <v>268</v>
+      </c>
+      <c r="C64" t="s">
+        <v>269</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0.94185758345417003</v>
+      </c>
+      <c r="F64">
+        <v>0.84887347688693704</v>
+      </c>
+      <c r="G64">
+        <v>0.61814027449423303</v>
+      </c>
+      <c r="H64">
+        <v>0.48256613342003801</v>
+      </c>
+      <c r="I64">
+        <v>13.2653267123286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65" t="s">
+        <v>271</v>
+      </c>
+      <c r="C65" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0.87523405218287298</v>
+      </c>
+      <c r="F65">
+        <v>0.76671096388670801</v>
+      </c>
+      <c r="G65">
+        <v>0.59003701867207803</v>
+      </c>
+      <c r="H65">
+        <v>0.55981378416576399</v>
+      </c>
+      <c r="I65">
+        <v>3.5063174408413702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B66" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" t="s">
+        <v>275</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0.87855735605627405</v>
+      </c>
+      <c r="F66">
+        <v>0.81758103579826402</v>
+      </c>
+      <c r="G66">
+        <v>0.65149692014923699</v>
+      </c>
+      <c r="H66">
+        <v>0.49605064295301798</v>
+      </c>
+      <c r="I66">
+        <v>7.8594443118398098</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>276</v>
+      </c>
+      <c r="B67" t="s">
+        <v>277</v>
+      </c>
+      <c r="C67" t="s">
+        <v>278</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0.929391009601374</v>
+      </c>
+      <c r="F67">
+        <v>0.89445749407284303</v>
+      </c>
+      <c r="G67">
+        <v>0.62206440535964302</v>
+      </c>
+      <c r="H67">
+        <v>0.477734679588114</v>
+      </c>
+      <c r="I67">
+        <v>10.378074141657301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" t="s">
+        <v>281</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0.93185458134356303</v>
+      </c>
+      <c r="F68">
+        <v>0.91498305277054204</v>
+      </c>
+      <c r="G68">
+        <v>0.68512587467825203</v>
+      </c>
+      <c r="H68">
+        <v>0.43300306014534901</v>
+      </c>
+      <c r="I68">
+        <v>3.6765853230696202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" t="s">
+        <v>284</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0.924359581147849</v>
+      </c>
+      <c r="F69">
+        <v>0.83606847136704898</v>
+      </c>
+      <c r="G69">
+        <v>0.66409572006816697</v>
+      </c>
+      <c r="H69">
+        <v>0.49126147874411702</v>
+      </c>
+      <c r="I69">
+        <v>13.7140449075054</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" t="s">
+        <v>286</v>
+      </c>
+      <c r="C70" t="s">
+        <v>287</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0.94437108143755299</v>
+      </c>
+      <c r="F70">
+        <v>0.88168177544594395</v>
+      </c>
+      <c r="G70">
+        <v>0.66952093802730706</v>
+      </c>
+      <c r="H70">
+        <v>0.51665852308889704</v>
+      </c>
+      <c r="I70">
+        <v>134.35478370321701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" t="s">
+        <v>289</v>
+      </c>
+      <c r="C71" t="s">
+        <v>290</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0.94367377450990997</v>
+      </c>
+      <c r="F71">
+        <v>0.90391928974527702</v>
+      </c>
+      <c r="G71">
+        <v>0.66034117031657202</v>
+      </c>
+      <c r="H71">
+        <v>0.52819144547989205</v>
+      </c>
+      <c r="I71">
+        <v>5.0609091817374203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" t="s">
+        <v>292</v>
+      </c>
+      <c r="C72" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0.94554481716427097</v>
+      </c>
+      <c r="F72">
+        <v>0.91033919000770402</v>
+      </c>
+      <c r="G72">
+        <v>0.67357965143906695</v>
+      </c>
+      <c r="H72">
+        <v>0.56026306865398401</v>
+      </c>
+      <c r="I72">
+        <v>2.0317103566674599</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" t="s">
+        <v>296</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0.95079283964654104</v>
+      </c>
+      <c r="F73">
+        <v>0.91059929663014805</v>
+      </c>
+      <c r="G73">
+        <v>0.71417118875772401</v>
+      </c>
+      <c r="H73">
+        <v>0.59484824600283104</v>
+      </c>
+      <c r="I73">
+        <v>22.969504141443799</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>297</v>
+      </c>
+      <c r="B74" t="s">
+        <v>298</v>
+      </c>
+      <c r="C74" t="s">
+        <v>299</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0.97352544365008598</v>
+      </c>
+      <c r="F74">
+        <v>0.880576380609705</v>
+      </c>
+      <c r="G74">
+        <v>0.78231397627608401</v>
+      </c>
+      <c r="H74">
+        <v>0.64703430189164601</v>
+      </c>
+      <c r="I74">
+        <v>2.19596951423163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>300</v>
+      </c>
+      <c r="B75" t="s">
+        <v>301</v>
+      </c>
+      <c r="C75" t="s">
+        <v>302</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0.92068436786480401</v>
+      </c>
+      <c r="F75">
+        <v>0.85803317940778601</v>
+      </c>
+      <c r="G75">
+        <v>0.766860371226736</v>
+      </c>
+      <c r="H75">
+        <v>0.68754834277414401</v>
+      </c>
+      <c r="I75">
+        <v>2.6277478337510298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" t="s">
+        <v>305</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0.96908998850663397</v>
+      </c>
+      <c r="F76">
+        <v>0.93042730335773804</v>
+      </c>
+      <c r="G76">
+        <v>0.832898666349425</v>
+      </c>
+      <c r="H76">
+        <v>0.62489113013880804</v>
+      </c>
+      <c r="I76">
+        <v>53.386817675645901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>0.96699170759523201</v>
+      </c>
+      <c r="F77">
+        <v>0.938411453796277</v>
+      </c>
+      <c r="G77">
+        <v>0.80169803806117401</v>
+      </c>
+      <c r="H77">
+        <v>0.65996420483886797</v>
+      </c>
+      <c r="I77">
+        <v>24.9266760117285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78" t="s">
+        <v>310</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0.97148714227461896</v>
+      </c>
+      <c r="F78">
+        <v>0.93646578926784996</v>
+      </c>
+      <c r="G78">
+        <v>0.83480795996076795</v>
+      </c>
+      <c r="H78">
+        <v>0.65745003757987197</v>
+      </c>
+      <c r="I78">
+        <v>14.528413503911899</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0.97055153307250797</v>
+      </c>
+      <c r="F79">
+        <v>0.93278179835317898</v>
+      </c>
+      <c r="G79">
+        <v>0.82632590887333901</v>
+      </c>
+      <c r="H79">
+        <v>0.68763882137455901</v>
+      </c>
+      <c r="I79">
+        <v>33.845097152332897</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0.97869822862576805</v>
+      </c>
+      <c r="F80">
+        <v>0.92808120640843605</v>
+      </c>
+      <c r="G80">
+        <v>0.83263439281746598</v>
+      </c>
+      <c r="H80">
+        <v>0.70651949115770996</v>
+      </c>
+      <c r="I80">
+        <v>5.1019512304707497</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
         <v>20</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.91987257951720802</v>
-      </c>
-      <c r="F7">
-        <v>0.84095765633988007</v>
-      </c>
-      <c r="G7">
-        <v>0.66170245959326601</v>
-      </c>
-      <c r="H7">
-        <v>0.46642677842465902</v>
-      </c>
-      <c r="I7">
-        <v>14.00142011967066</v>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>0.94856033498082803</v>
+      </c>
+      <c r="F81">
+        <v>0.91661073807895599</v>
+      </c>
+      <c r="G81">
+        <v>0.84960227589980097</v>
+      </c>
+      <c r="H81">
+        <v>0.74957537944191799</v>
+      </c>
+      <c r="I81">
+        <v>5.9537783086387002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>0.82457587820572098</v>
+      </c>
+      <c r="F82">
+        <v>0.68493609150568402</v>
+      </c>
+      <c r="G82">
+        <v>0.53007012637611695</v>
+      </c>
+      <c r="H82">
+        <v>0.37382886504940999</v>
+      </c>
+      <c r="I82">
+        <v>21.100402723703901</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0.78446876132716203</v>
+      </c>
+      <c r="F83">
+        <v>0.70337099828361205</v>
+      </c>
+      <c r="G83">
+        <v>0.56111838210500298</v>
+      </c>
+      <c r="H83">
+        <v>0.381429723727022</v>
+      </c>
+      <c r="I83">
+        <v>4.3381162462517002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>27</v>
+      </c>
+      <c r="B84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C84" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0.82047904832707197</v>
+      </c>
+      <c r="F84">
+        <v>0.69287050532251804</v>
+      </c>
+      <c r="G84">
+        <v>0.57481419422412505</v>
+      </c>
+      <c r="H84">
+        <v>0.373281060656041</v>
+      </c>
+      <c r="I84">
+        <v>13.010324926921999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0.88968154935202604</v>
+      </c>
+      <c r="F85">
+        <v>0.74573571699209995</v>
+      </c>
+      <c r="G85">
+        <v>0.54067995725599405</v>
+      </c>
+      <c r="H85">
+        <v>0.38137542834017202</v>
+      </c>
+      <c r="I85">
+        <v>14.531965601320399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0.82592791715587199</v>
+      </c>
+      <c r="F86">
+        <v>0.72166641104267604</v>
+      </c>
+      <c r="G86">
+        <v>0.59650272596334997</v>
+      </c>
+      <c r="H86">
+        <v>0.384091843813404</v>
+      </c>
+      <c r="I86">
+        <v>4.8533470614223599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" t="s">
+        <v>38</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0.87696288361998698</v>
+      </c>
+      <c r="F87">
+        <v>0.74212499928664899</v>
+      </c>
+      <c r="G87">
+        <v>0.60309121697833801</v>
+      </c>
+      <c r="H87">
+        <v>0.37642106870195302</v>
+      </c>
+      <c r="I87">
+        <v>74.590865989564094</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0.88484890632902202</v>
+      </c>
+      <c r="F88">
+        <v>0.79984177910140397</v>
+      </c>
+      <c r="G88">
+        <v>0.53441676161358298</v>
+      </c>
+      <c r="H88">
+        <v>0.404415507364703</v>
+      </c>
+      <c r="I88">
+        <v>12.371502883715801</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0.90878656020364101</v>
+      </c>
+      <c r="F89">
+        <v>0.771313063873316</v>
+      </c>
+      <c r="G89">
+        <v>0.57126231763966095</v>
+      </c>
+      <c r="H89">
+        <v>0.38865832965325398</v>
+      </c>
+      <c r="I89">
+        <v>7.2186254337628304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" t="s">
+        <v>47</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>0.86876314272825295</v>
+      </c>
+      <c r="F90">
+        <v>0.78821149088972897</v>
+      </c>
+      <c r="G90">
+        <v>0.60035507413042699</v>
+      </c>
+      <c r="H90">
+        <v>0.377781968572723</v>
+      </c>
+      <c r="I90">
+        <v>9.8514040122907893</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0.86402671690672395</v>
+      </c>
+      <c r="F91">
+        <v>0.81091419303624701</v>
+      </c>
+      <c r="G91">
+        <v>0.57357882055929998</v>
+      </c>
+      <c r="H91">
+        <v>0.39866854296974102</v>
+      </c>
+      <c r="I91">
+        <v>1.89631941244972</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>0.82806409586530305</v>
+      </c>
+      <c r="F92">
+        <v>0.80565900618654096</v>
+      </c>
+      <c r="G92">
+        <v>0.59595664574013596</v>
+      </c>
+      <c r="H92">
+        <v>0.39912980010951499</v>
+      </c>
+      <c r="I92">
+        <v>0.18482474099999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>0.86699122178015398</v>
+      </c>
+      <c r="F93">
+        <v>0.80493473995514397</v>
+      </c>
+      <c r="G93">
+        <v>0.58125125480768802</v>
+      </c>
+      <c r="H93">
+        <v>0.40592044921903297</v>
+      </c>
+      <c r="I93">
+        <v>8.4730086371211506</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>57</v>
+      </c>
+      <c r="B94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0.80736666751591302</v>
+      </c>
+      <c r="F94">
+        <v>0.736347557622264</v>
+      </c>
+      <c r="G94">
+        <v>0.589876496824426</v>
+      </c>
+      <c r="H94">
+        <v>0.46079444907137301</v>
+      </c>
+      <c r="I94">
+        <v>5.7491701865647498</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0.85795435061889103</v>
+      </c>
+      <c r="F95">
+        <v>0.74402604574995501</v>
+      </c>
+      <c r="G95">
+        <v>0.72048202568737396</v>
+      </c>
+      <c r="H95">
+        <v>0.36524506947670399</v>
+      </c>
+      <c r="I95">
+        <v>17.7595145079951</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0.892836229906663</v>
+      </c>
+      <c r="F96">
+        <v>0.876750345607749</v>
+      </c>
+      <c r="G96">
+        <v>0.59335728327762505</v>
+      </c>
+      <c r="H96">
+        <v>0.39635346744543598</v>
+      </c>
+      <c r="I96">
+        <v>2.97370871718867</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>0.92744889210644499</v>
+      </c>
+      <c r="F97">
+        <v>0.80672325083460095</v>
+      </c>
+      <c r="G97">
+        <v>0.61187182257454398</v>
+      </c>
+      <c r="H97">
+        <v>0.41344988050556603</v>
+      </c>
+      <c r="I97">
+        <v>3.4868192409388699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0.88318763639029996</v>
+      </c>
+      <c r="F98">
+        <v>0.80695600935364697</v>
+      </c>
+      <c r="G98">
+        <v>0.59427304882831899</v>
+      </c>
+      <c r="H98">
+        <v>0.44732735206774799</v>
+      </c>
+      <c r="I98">
+        <v>10.1265118240949</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>0.86038050223485596</v>
+      </c>
+      <c r="F99">
+        <v>0.79233456494799004</v>
+      </c>
+      <c r="G99">
+        <v>0.67481502046615005</v>
+      </c>
+      <c r="H99">
+        <v>0.40663414591409203</v>
+      </c>
+      <c r="I99">
+        <v>2.5573894967822501</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0.91626951018163805</v>
+      </c>
+      <c r="F100">
+        <v>0.78845969722141795</v>
+      </c>
+      <c r="G100">
+        <v>0.64481205323937496</v>
+      </c>
+      <c r="H100">
+        <v>0.43631799988339698</v>
+      </c>
+      <c r="I100">
+        <v>7.38497501744608</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0.89087548211862799</v>
+      </c>
+      <c r="F101">
+        <v>0.78249554468555704</v>
+      </c>
+      <c r="G101">
+        <v>0.65916623617344505</v>
+      </c>
+      <c r="H101">
+        <v>0.44516495304064302</v>
+      </c>
+      <c r="I101">
+        <v>1.4476472456902201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" t="s">
+        <v>83</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0.79060999892568595</v>
+      </c>
+      <c r="F102">
+        <v>0.74581531491971098</v>
+      </c>
+      <c r="G102">
+        <v>0.62387728397119502</v>
+      </c>
+      <c r="H102">
+        <v>0.52277703295118905</v>
+      </c>
+      <c r="I102">
+        <v>3.4939666749207201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" t="s">
+        <v>85</v>
+      </c>
+      <c r="C103" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0.88249653678736295</v>
+      </c>
+      <c r="F103">
+        <v>0.84568334925413702</v>
+      </c>
+      <c r="G103">
+        <v>0.62143366337683903</v>
+      </c>
+      <c r="H103">
+        <v>0.46728898542379999</v>
+      </c>
+      <c r="I103">
+        <v>7.6985489269793703</v>
       </c>
     </row>
   </sheetData>
@@ -677,48 +4315,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40B7CE9-BBE8-4DB8-BF5E-F3C5BF88F0F5}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>0.98645678341227805</v>
-      </c>
-      <c r="F1">
-        <v>0.97662385304670585</v>
-      </c>
-      <c r="G1">
-        <v>0.92809594331541911</v>
-      </c>
-      <c r="H1">
-        <v>0.84137261183425505</v>
-      </c>
-      <c r="I1">
-        <v>99.175758130627088</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Program/test_data.xlsx
+++ b/Program/test_data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schepyal\Documents\GitHub\JUMPt\Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Projects\Protein_turnover\Manuscript_JUMPt\GitHub_JUMPt\Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3163F297-56B7-4955-AF2B-B3899571BB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BCA240-119F-4269-960D-3A3BFD52A951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E21D9E2-FF67-425E-B967-D28E133C51D0}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="13965" xr2:uid="{8E21D9E2-FF67-425E-B967-D28E133C51D0}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$I$6</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="315">
   <si>
     <t>GN</t>
   </si>
@@ -65,910 +66,922 @@
     <t>Name</t>
   </si>
   <si>
+    <t>sp|P04370|MBP_MOUSE</t>
+  </si>
+  <si>
+    <t>Mbp</t>
+  </si>
+  <si>
+    <t>Myelin basic protein OS=Mus musculus GN=Mbp PE=1 SV=2</t>
+  </si>
+  <si>
     <t>Concentration_microM</t>
   </si>
   <si>
     <t>Pulsing time</t>
   </si>
   <si>
-    <t>'Hk1'</t>
-  </si>
-  <si>
-    <t>'sp|P05202|AATM_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Got2'</t>
-  </si>
-  <si>
-    <t>'Aspartate aminotransferase, mitochondrial OS=Mus musculus GN=Got2 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9QXX4|CMC2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Slc25a13'</t>
-  </si>
-  <si>
-    <t>'Calcium-binding mitochondrial carrier protein Aralar2 OS=Mus musculus GN=Slc25a13 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9CR62|M2OM_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Slc25a11'</t>
-  </si>
-  <si>
-    <t>'Mitochondrial 2-oxoglutarate/malate carrier protein OS=Mus musculus GN=Slc25a11 PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|P60879-2|SNP25_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Snap25'</t>
-  </si>
-  <si>
-    <t>'Isoform 2 of Synaptosomal-associated protein 25 OS=Mus musculus GN=Snap25'</t>
-  </si>
-  <si>
-    <t>'sp|P70297|STAM1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Stam'</t>
-  </si>
-  <si>
-    <t>'Signal transducing adapter molecule 1 OS=Mus musculus GN=Stam PE=2 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|Q61768|KINH_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Kif5b'</t>
-  </si>
-  <si>
-    <t>'Kinesin-1 heavy chain OS=Mus musculus GN=Kif5b PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'tr|E9Q912|E9Q912_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Rap1gds1'</t>
-  </si>
-  <si>
-    <t>'Protein Rap1gds1 OS=Mus musculus GN=Rap1gds1 PE=4 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9R1T2|SAE1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Sae1'</t>
-  </si>
-  <si>
-    <t>'SUMO-activating enzyme subunit 1 OS=Mus musculus GN=Sae1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9QYR6|MAP1A_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Map1a'</t>
-  </si>
-  <si>
-    <t>'Microtubule-associated protein 1A OS=Mus musculus GN=Map1a PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|Q9WV55|VAPA_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Vapa'</t>
-  </si>
-  <si>
-    <t>'Vesicle-associated membrane protein-associated protein A OS=Mus musculus GN=Vapa PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|Q02248|CTNB1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Ctnnb1'</t>
-  </si>
-  <si>
-    <t>'Catenin beta-1 OS=Mus musculus GN=Ctnnb1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'tr|Q4VA93|Q4VA93_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Prkca'</t>
-  </si>
-  <si>
-    <t>'Protein kinase C OS=Mus musculus GN=Prkca PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9QZ06|TOLIP_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Tollip'</t>
-  </si>
-  <si>
-    <t>'Toll-interacting protein OS=Mus musculus GN=Tollip PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P68040|GBLP_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Gnb2l1'</t>
-  </si>
-  <si>
-    <t>'Guanine nucleotide-binding protein subunit beta-2-like 1 OS=Mus musculus GN=Gnb2l1 PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|Q3THK7|GUAA_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Gmps'</t>
-  </si>
-  <si>
-    <t>'GMP synthase [glutamine-hydrolyzing] OS=Mus musculus GN=Gmps PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|Q8BHN3|GANAB_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Ganab'</t>
-  </si>
-  <si>
-    <t>'Neutral alpha-glucosidase AB OS=Mus musculus GN=Ganab PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q91ZX7|LRP1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Lrp1'</t>
-  </si>
-  <si>
-    <t>'Prolow-density lipoprotein receptor-related protein 1 OS=Mus musculus GN=Lrp1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q8C0C7|SYFA_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Farsa'</t>
-  </si>
-  <si>
-    <t>'Phenylalanine--tRNA ligase alpha subunit OS=Mus musculus GN=Farsa PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P49722|PSA2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Psma2'</t>
-  </si>
-  <si>
-    <t>'Proteasome subunit alpha type-2 OS=Mus musculus GN=Psma2 PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|O54983|CRYM_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Crym'</t>
-  </si>
-  <si>
-    <t>'Ketimine reductase mu-crystallin OS=Mus musculus GN=Crym PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P62317|SMD2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Snrpd2'</t>
-  </si>
-  <si>
-    <t>'Small nuclear ribonucleoprotein Sm D2 OS=Mus musculus GN=Snrpd2 PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P57746|VATD_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Atp6v1d'</t>
-  </si>
-  <si>
-    <t>'V-type proton ATPase subunit D OS=Mus musculus GN=Atp6v1d PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P27048|RSMB_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Snrpb'</t>
-  </si>
-  <si>
-    <t>'Small nuclear ribonucleoprotein-associated protein B OS=Mus musculus GN=Snrpb PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P62911|RL32_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Rpl32'</t>
-  </si>
-  <si>
-    <t>'60S ribosomal protein L32 OS=Mus musculus GN=Rpl32 PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|Q9CPV4|GLOD4_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Glod4'</t>
-  </si>
-  <si>
-    <t>'Glyoxalase domain-containing protein 4 OS=Mus musculus GN=Glod4 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'Crmp1'</t>
-  </si>
-  <si>
-    <t>'sp|Q8VEH3|ARL8A_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Arl8a'</t>
-  </si>
-  <si>
-    <t>'ADP-ribosylation factor-like protein 8A OS=Mus musculus GN=Arl8a PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P97371|PSME1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Psme1'</t>
-  </si>
-  <si>
-    <t>'Proteasome activator complex subunit 1 OS=Mus musculus GN=Psme1 PE=2 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|Q99L43|CDS2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Cds2'</t>
-  </si>
-  <si>
-    <t>'Phosphatidate cytidylyltransferase 2 OS=Mus musculus GN=Cds2 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9QUM9|PSA6_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Psma6'</t>
-  </si>
-  <si>
-    <t>'Proteasome subunit alpha type-6 OS=Mus musculus GN=Psma6 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q99MI1|RB6I2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Erc1'</t>
-  </si>
-  <si>
-    <t>'ELKS/Rab6-interacting/CAST family member 1 OS=Mus musculus GN=Erc1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q8VDW0|DX39A_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Ddx39a'</t>
-  </si>
-  <si>
-    <t>'ATP-dependent RNA helicase DDX39A OS=Mus musculus GN=Ddx39a PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q91V14|S12A5_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Slc12a5'</t>
-  </si>
-  <si>
-    <t>'Solute carrier family 12 member 5 OS=Mus musculus GN=Slc12a5 PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|P52480-2|KPYM_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Pkm'</t>
-  </si>
-  <si>
-    <t>'Isoform M1 of Pyruvate kinase PKM OS=Mus musculus GN=Pkm'</t>
-  </si>
-  <si>
-    <t>'sp|P97952|SCN1B_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Scn1b'</t>
-  </si>
-  <si>
-    <t>'Sodium channel subunit beta-1 OS=Mus musculus GN=Scn1b PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q8CHG7|RPGF2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Rapgef2'</t>
-  </si>
-  <si>
-    <t>'Rap guanine nucleotide exchange factor 2 OS=Mus musculus GN=Rapgef2 PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|P63101|1433Z_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Ywhaz'</t>
-  </si>
-  <si>
-    <t>'14-3-3 protein zeta/delta OS=Mus musculus GN=Ywhaz PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q8CGY8|OGT1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Ogt'</t>
-  </si>
-  <si>
-    <t>'UDP-N-acetylglucosamine--peptide N-acetylglucosaminyltransferase 110 kDa subunit OS=Mus musculus GN=Ogt PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|Q9CQ92|FIS1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Fis1'</t>
-  </si>
-  <si>
-    <t>'Mitochondrial fission 1 protein OS=Mus musculus GN=Fis1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9DBJ1|PGAM1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Pgam1'</t>
-  </si>
-  <si>
-    <t>'Phosphoglycerate mutase 1 OS=Mus musculus GN=Pgam1 PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|Q9QUI0|RHOA_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Rhoa'</t>
-  </si>
-  <si>
-    <t>'Transforming protein RhoA OS=Mus musculus GN=Rhoa PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P63024|VAMP3_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Vamp3'</t>
-  </si>
-  <si>
-    <t>'Vesicle-associated membrane protein 3 OS=Mus musculus GN=Vamp3 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9R0Q6|ARC1A_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Arpc1a'</t>
-  </si>
-  <si>
-    <t>'Actin-related protein 2/3 complex subunit 1A OS=Mus musculus GN=Arpc1a PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P61161|ARP2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Actr2'</t>
-  </si>
-  <si>
-    <t>'Actin-related protein 2 OS=Mus musculus GN=Actr2 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|O35643|AP1B1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Ap1b1'</t>
-  </si>
-  <si>
-    <t>'AP-1 complex subunit beta-1 OS=Mus musculus GN=Ap1b1 PE=2 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|Q6GQS1|SCMC3_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Slc25a23'</t>
-  </si>
-  <si>
-    <t>'Calcium-binding mitochondrial carrier protein SCaMC-3 OS=Mus musculus GN=Slc25a23 PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9CZW5|TOM70_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Tomm70a'</t>
-  </si>
-  <si>
-    <t>'Mitochondrial import receptor subunit TOM70 OS=Mus musculus GN=Tomm70a PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|P35802|GPM6A_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Gpm6a'</t>
-  </si>
-  <si>
-    <t>'Neuronal membrane glycoprotein M6-a OS=Mus musculus GN=Gpm6a PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q8CHH9|SEPT8_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Sept8'</t>
-  </si>
-  <si>
-    <t>'Septin-8 OS=Mus musculus GN=Sept8 PE=1 SV=4'</t>
-  </si>
-  <si>
-    <t>'sp|P21107-2|TPM3_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Tpm3'</t>
-  </si>
-  <si>
-    <t>'Isoform 2 of Tropomyosin alpha-3 chain OS=Mus musculus GN=Tpm3'</t>
-  </si>
-  <si>
-    <t>'sp|P12960|CNTN1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Cntn1'</t>
-  </si>
-  <si>
-    <t>'Contactin-1 OS=Mus musculus GN=Cntn1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q64332-2|SYN2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Syn2'</t>
-  </si>
-  <si>
-    <t>'Isoform IIb of Synapsin-2 OS=Mus musculus GN=Syn2'</t>
-  </si>
-  <si>
-    <t>'sp|O09167|RL21_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Rpl21'</t>
-  </si>
-  <si>
-    <t>'60S ribosomal protein L21 OS=Mus musculus GN=Rpl21 PE=2 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|P29387|GBB4_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Gnb4'</t>
-  </si>
-  <si>
-    <t>'Guanine nucleotide-binding protein subunit beta-4 OS=Mus musculus GN=Gnb4 PE=2 SV=4'</t>
-  </si>
-  <si>
-    <t>'sp|P17710|HXK1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Hexokinase-1 OS=Mus musculus GN=Hk1 PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|P68368|TBA4A_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Tuba4a'</t>
-  </si>
-  <si>
-    <t>'Tubulin alpha-4A chain OS=Mus musculus GN=Tuba4a PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P03921|NU5M_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Mtnd5'</t>
-  </si>
-  <si>
-    <t>'NADH-ubiquinone oxidoreductase chain 5 OS=Mus musculus GN=Mtnd5 PE=3 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|P58252|EF2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Eef2'</t>
-  </si>
-  <si>
-    <t>'Elongation factor 2 OS=Mus musculus GN=Eef2 PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|P11031|TCP4_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Sub1'</t>
-  </si>
-  <si>
-    <t>'Activated RNA polymerase II transcriptional coactivator p15 OS=Mus musculus GN=Sub1 PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|P60840|ENSA_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Ensa'</t>
-  </si>
-  <si>
-    <t>'Alpha-endosulfine OS=Mus musculus GN=Ensa PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P84075|HPCA_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Hpca'</t>
-  </si>
-  <si>
-    <t>'Neuron-specific calcium-binding protein hippocalcin OS=Mus musculus GN=Hpca PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'tr|E9Q035|E9Q035_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Gm20425'</t>
-  </si>
-  <si>
-    <t>'Protein Gm20425 OS=Mus musculus GN=Gm20425 PE=4 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P08113|ENPL_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Hsp90b1'</t>
-  </si>
-  <si>
-    <t>'Endoplasmin OS=Mus musculus GN=Hsp90b1 PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|P14211|CALR_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Calr'</t>
-  </si>
-  <si>
-    <t>'Calreticulin OS=Mus musculus GN=Calr PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P54726|RD23A_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Rad23a'</t>
-  </si>
-  <si>
-    <t>'UV excision repair protein RAD23 homolog A OS=Mus musculus GN=Rad23a PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'tr|J3KMQ2|J3KMQ2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Gm5422'</t>
-  </si>
-  <si>
-    <t>'Uncharacterized protein OS=Mus musculus GN=Gm5422 PE=4 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q8BP92|RCN2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Rcn2'</t>
-  </si>
-  <si>
-    <t>'Reticulocalbin-2 OS=Mus musculus GN=Rcn2 PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|O70493|SNX12_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Snx12'</t>
-  </si>
-  <si>
-    <t>'Sorting nexin-12 OS=Mus musculus GN=Snx12 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9Z2U1|PSA5_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Psma5'</t>
-  </si>
-  <si>
-    <t>'Proteasome subunit alpha type-5 OS=Mus musculus GN=Psma5 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'tr|Q91V89|Q91V89_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Ppp2r5d'</t>
-  </si>
-  <si>
-    <t>'Protein Ppp2r5d OS=Mus musculus GN=Ppp2r5d PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q04690|NF1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Nf1'</t>
-  </si>
-  <si>
-    <t>'Neurofibromin OS=Mus musculus GN=Nf1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9DBG6|RPN2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Rpn2'</t>
-  </si>
-  <si>
-    <t>'Dolichyl-diphosphooligosaccharide--protein glycosyltransferase subunit 2 OS=Mus musculus GN=Rpn2 PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q923T9|KCC2G_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Camk2g'</t>
-  </si>
-  <si>
-    <t>'Calcium/calmodulin-dependent protein kinase type II subunit gamma OS=Mus musculus GN=Camk2g PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q8BL66|EEA1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Eea1'</t>
-  </si>
-  <si>
-    <t>'Early endosome antigen 1 OS=Mus musculus GN=Eea1 PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|Q3UH60|DIP2B_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Dip2b'</t>
-  </si>
-  <si>
-    <t>'Disco-interacting protein 2 homolog B OS=Mus musculus GN=Dip2b PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9R1P3|PSB2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Psmb2'</t>
-  </si>
-  <si>
-    <t>'Proteasome subunit beta type-2 OS=Mus musculus GN=Psmb2 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9R0P5|DEST_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Dstn'</t>
-  </si>
-  <si>
-    <t>'Destrin OS=Mus musculus GN=Dstn PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|Q9R1P4|PSA1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Psma1'</t>
-  </si>
-  <si>
-    <t>'Proteasome subunit alpha type-1 OS=Mus musculus GN=Psma1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q02053|UBA1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Uba1'</t>
-  </si>
-  <si>
-    <t>'Ubiquitin-like modifier-activating enzyme 1 OS=Mus musculus GN=Uba1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q8BH58|TIPRL_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Tiprl'</t>
-  </si>
-  <si>
-    <t>'TIP41-like protein OS=Mus musculus GN=Tiprl PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P16460|ASSY_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Ass1'</t>
-  </si>
-  <si>
-    <t>'Argininosuccinate synthase OS=Mus musculus GN=Ass1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P14869|RLA0_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Rplp0'</t>
-  </si>
-  <si>
-    <t>'60S acidic ribosomal protein P0 OS=Mus musculus GN=Rplp0 PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|P62259|1433E_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Ywhae'</t>
-  </si>
-  <si>
-    <t>'14-3-3 protein epsilon OS=Mus musculus GN=Ywhae PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P48758|CBR1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Cbr1'</t>
-  </si>
-  <si>
-    <t>'Carbonyl reductase [NADPH] 1 OS=Mus musculus GN=Cbr1 PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'tr|Q8C5R8|Q8C5R8_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Prps1l1'</t>
-  </si>
-  <si>
-    <t>'Protein Prps1l1 OS=Mus musculus GN=Prps1l1 PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9CQM5|TXD17_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Txndc17'</t>
-  </si>
-  <si>
-    <t>'Thioredoxin domain-containing protein 17 OS=Mus musculus GN=Txndc17 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q91XM9|DLG2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Dlg2'</t>
-  </si>
-  <si>
-    <t>'Disks large homolog 2 OS=Mus musculus GN=Dlg2 PE=1 SV=2'</t>
-  </si>
-  <si>
-    <t>'sp|Q9WTM5|RUVB2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Ruvbl2'</t>
-  </si>
-  <si>
-    <t>'RuvB-like 2 OS=Mus musculus GN=Ruvbl2 PE=2 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|Q9ESN6|TRIM2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Trim2'</t>
-  </si>
-  <si>
-    <t>'Tripartite motif-containing protein 2 OS=Mus musculus GN=Trim2 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q60902|EP15R_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Eps15l1'</t>
-  </si>
-  <si>
-    <t>'Epidermal growth factor receptor substrate 15-like 1 OS=Mus musculus GN=Eps15l1 PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|Q8K183|PDXK_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Pdxk'</t>
-  </si>
-  <si>
-    <t>'Pyridoxal kinase OS=Mus musculus GN=Pdxk PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P70296|PEBP1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Pebp1'</t>
-  </si>
-  <si>
-    <t>'Phosphatidylethanolamine-binding protein 1 OS=Mus musculus GN=Pebp1 PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|Q6PIC6|AT1A3_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Atp1a3'</t>
-  </si>
-  <si>
-    <t>'Sodium/potassium-transporting ATPase subunit alpha-3 OS=Mus musculus GN=Atp1a3 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9DBF1|AL7A1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Aldh7a1'</t>
-  </si>
-  <si>
-    <t>'Alpha-aminoadipic semialdehyde dehydrogenase OS=Mus musculus GN=Aldh7a1 PE=1 SV=4'</t>
-  </si>
-  <si>
-    <t>'sp|P52760|UK114_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Hrsp12'</t>
-  </si>
-  <si>
-    <t>'Ribonuclease UK114 OS=Mus musculus GN=Hrsp12 PE=1 SV=3'</t>
-  </si>
-  <si>
-    <t>'sp|O08539|BIN1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Bin1'</t>
-  </si>
-  <si>
-    <t>'Myc box-dependent-interacting protein 1 OS=Mus musculus GN=Bin1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9DCZ4|APOO_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Apoo'</t>
-  </si>
-  <si>
-    <t>'Apolipoprotein O OS=Mus musculus GN=Apoo PE=2 SV=1'</t>
-  </si>
-  <si>
-    <t>'tr|A2AFQ2|A2AFQ2_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Hsd17b10'</t>
-  </si>
-  <si>
-    <t>'3-hydroxyacyl-CoA dehydrogenase type-2 OS=Mus musculus GN=Hsd17b10 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9JJZ2|TBA8_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Tuba8'</t>
-  </si>
-  <si>
-    <t>'Tubulin alpha-8 chain OS=Mus musculus GN=Tuba8 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|P97427|DPYL1_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Dihydropyrimidinase-related protein 1 OS=Mus musculus GN=Crmp1 PE=1 SV=1'</t>
-  </si>
-  <si>
-    <t>'sp|Q9WUM5|SUCA_MOUSE'</t>
-  </si>
-  <si>
-    <t>'Suclg1'</t>
-  </si>
-  <si>
-    <t>'Succinyl-CoA ligase [ADP/GDP-forming] subunit alpha, mitochondrial OS=Mus musculus GN=Suclg1 PE=1 SV=4'</t>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>'sp|P51791|CLCN3_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Clcn3'</t>
+  </si>
+  <si>
+    <t>'H(+)/Cl(-) exchange transporter 3 OS=Mus musculus GN=Clcn3 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q7TSH2|KPBB_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Phkb'</t>
+  </si>
+  <si>
+    <t>'Phosphorylase b kinase regulatory subunit beta OS=Mus musculus GN=Phkb PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'tr|S4R2N8|S4R2N8_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Dst'</t>
+  </si>
+  <si>
+    <t>'Dystonin OS=Mus musculus GN=Dst PE=4 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q91YD9|WASL_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Wasl'</t>
+  </si>
+  <si>
+    <t>'Neural Wiskott-Aldrich syndrome protein OS=Mus musculus GN=Wasl PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8BK72|RT27_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Mrps27'</t>
+  </si>
+  <si>
+    <t>'28S ribosomal protein S27, mitochondrial OS=Mus musculus GN=Mrps27 PE=2 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q8BG67|EFR3A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Efr3a'</t>
+  </si>
+  <si>
+    <t>'Protein EFR3 homolog A OS=Mus musculus GN=Efr3a PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q80ZI2|RTP2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rtp2'</t>
+  </si>
+  <si>
+    <t>'Receptor-transporting protein 2 OS=Mus musculus GN=Rtp2 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9QXT8|CSEN_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Kcnip3'</t>
+  </si>
+  <si>
+    <t>'Calsenilin OS=Mus musculus GN=Kcnip3 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q9CQJ6|DENR_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Denr'</t>
+  </si>
+  <si>
+    <t>'Density-regulated protein OS=Mus musculus GN=Denr PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9D8X2|CC124_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ccdc124'</t>
+  </si>
+  <si>
+    <t>'Coiled-coil domain-containing protein 124 OS=Mus musculus GN=Ccdc124 PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P24270|CATA_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Cat'</t>
+  </si>
+  <si>
+    <t>'Catalase OS=Mus musculus GN=Cat PE=1 SV=4'</t>
+  </si>
+  <si>
+    <t>'sp|B0F2B4|NLGN4_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Nlgn4l'</t>
+  </si>
+  <si>
+    <t>'Neuroligin 4-like OS=Mus musculus GN=Nlgn4l PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P30416|FKBP4_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Fkbp4'</t>
+  </si>
+  <si>
+    <t>'Peptidyl-prolyl cis-trans isomerase FKBP4 OS=Mus musculus GN=Fkbp4 PE=1 SV=5'</t>
+  </si>
+  <si>
+    <t>'sp|Q9QVP9|FAK2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ptk2b'</t>
+  </si>
+  <si>
+    <t>'Protein-tyrosine kinase 2-beta OS=Mus musculus GN=Ptk2b PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'tr|G3X972|G3X972_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Sec24c'</t>
+  </si>
+  <si>
+    <t>'Protein Sec24c OS=Mus musculus GN=Sec24c PE=4 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9QYJ0|DNJA2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Dnaja2'</t>
+  </si>
+  <si>
+    <t>'DnaJ homolog subfamily A member 2 OS=Mus musculus GN=Dnaja2 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q5SUF2|LC7L3_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Luc7l3'</t>
+  </si>
+  <si>
+    <t>'Luc7-like protein 3 OS=Mus musculus GN=Luc7l3 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P07724|ALBU_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Alb'</t>
+  </si>
+  <si>
+    <t>'Serum albumin OS=Mus musculus GN=Alb PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|P51150|RAB7A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rab7a'</t>
+  </si>
+  <si>
+    <t>'Ras-related protein Rab-7a OS=Mus musculus GN=Rab7a PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q80U28|MADD_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Madd'</t>
+  </si>
+  <si>
+    <t>'MAP kinase-activating death domain protein OS=Mus musculus GN=Madd PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q9D1E6|TBCB_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Tbcb'</t>
+  </si>
+  <si>
+    <t>'Tubulin-folding cofactor B OS=Mus musculus GN=Tbcb PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q8R429|AT2A1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Atp2a1'</t>
+  </si>
+  <si>
+    <t>'Sarcoplasmic/endoplasmic reticulum calcium ATPase 1 OS=Mus musculus GN=Atp2a1 PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'tr|E9Q5T3|E9Q5T3_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gm5611'</t>
+  </si>
+  <si>
+    <t>'Uncharacterized protein OS=Mus musculus GN=Gm5611 PE=4 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q62351|TFR1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Tfrc'</t>
+  </si>
+  <si>
+    <t>'Transferrin receptor protein 1 OS=Mus musculus GN=Tfrc PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P80316|TCPE_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Cct5'</t>
+  </si>
+  <si>
+    <t>'T-complex protein 1 subunit epsilon OS=Mus musculus GN=Cct5 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8R5H6|WASF1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Wasf1'</t>
+  </si>
+  <si>
+    <t>'Wiskott-Aldrich syndrome protein family member 1 OS=Mus musculus GN=Wasf1 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P18760|COF1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Cfl1'</t>
+  </si>
+  <si>
+    <t>'Cofilin-1 OS=Mus musculus GN=Cfl1 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|P55302|AMRP_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Lrpap1'</t>
+  </si>
+  <si>
+    <t>'Alpha-2-macroglobulin receptor-associated protein OS=Mus musculus GN=Lrpap1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q3V0K9|PLSI_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Pls1'</t>
+  </si>
+  <si>
+    <t>'Plastin-1 OS=Mus musculus GN=Pls1 PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P61750|ARF4_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Arf4'</t>
+  </si>
+  <si>
+    <t>'ADP-ribosylation factor 4 OS=Mus musculus GN=Arf4 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P28741|KIF3A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Kif3a'</t>
+  </si>
+  <si>
+    <t>'Kinesin-like protein KIF3A OS=Mus musculus GN=Kif3a PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'tr|A2AF33|A2AF33_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Tmsb15b1'</t>
+  </si>
+  <si>
+    <t>'Protein Tmsb15b1 OS=Mus musculus GN=Tmsb15b1 PE=4 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9JHK4|PGTA_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rabggta'</t>
+  </si>
+  <si>
+    <t>'Geranylgeranyl transferase type-2 subunit alpha OS=Mus musculus GN=Rabggta PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P80318|TCPG_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Cct3'</t>
+  </si>
+  <si>
+    <t>'T-complex protein 1 subunit gamma OS=Mus musculus GN=Cct3 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8R3T5|STXB6_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Stxbp6'</t>
+  </si>
+  <si>
+    <t>'Syntaxin-binding protein 6 OS=Mus musculus GN=Stxbp6 PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q99K51|PLST_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Pls3'</t>
+  </si>
+  <si>
+    <t>'Plastin-3 OS=Mus musculus GN=Pls3 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|P09103|PDIA1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'P4hb'</t>
+  </si>
+  <si>
+    <t>'Protein disulfide-isomerase OS=Mus musculus GN=P4hb PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P07310|KCRM_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ckm'</t>
+  </si>
+  <si>
+    <t>'Creatine kinase M-type OS=Mus musculus GN=Ckm PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P35438|NMDZ1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Grin1'</t>
+  </si>
+  <si>
+    <t>'Glutamate receptor ionotropic, NMDA 1 OS=Mus musculus GN=Grin1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q3U2K0|F193B_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Fam193b'</t>
+  </si>
+  <si>
+    <t>'Protein FAM193B OS=Mus musculus GN=Fam193b PE=2 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q3UHJ0|AAK1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Aak1'</t>
+  </si>
+  <si>
+    <t>'AP2-associated protein kinase 1 OS=Mus musculus GN=Aak1 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q80U23|SNPH_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Snph'</t>
+  </si>
+  <si>
+    <t>'Syntaphilin OS=Mus musculus GN=Snph PE=2 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q8BIW1|PRUNE_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Prune'</t>
+  </si>
+  <si>
+    <t>'Protein prune homolog OS=Mus musculus GN=Prune PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q61036|PAK3_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Pak3'</t>
+  </si>
+  <si>
+    <t>'Serine/threonine-protein kinase PAK 3 OS=Mus musculus GN=Pak3 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P50396|GDIA_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gdi1'</t>
+  </si>
+  <si>
+    <t>'Rab GDP dissociation inhibitor alpha OS=Mus musculus GN=Gdi1 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q3UHL1|CAMKV_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Camkv'</t>
+  </si>
+  <si>
+    <t>'CaM kinase-like vesicle-associated protein OS=Mus musculus GN=Camkv PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P47708|RP3A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Rph3a'</t>
+  </si>
+  <si>
+    <t>'Rabphilin-3A OS=Mus musculus GN=Rph3a PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q6NS52-2|DGKB_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Dgkb'</t>
+  </si>
+  <si>
+    <t>'Isoform 2 of Diacylglycerol kinase beta OS=Mus musculus GN=Dgkb'</t>
+  </si>
+  <si>
+    <t>'sp|P47739|AL3A1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Aldh3a1'</t>
+  </si>
+  <si>
+    <t>'Aldehyde dehydrogenase, dimeric NADP-preferring OS=Mus musculus GN=Aldh3a1 PE=2 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q7TMK9|HNRPQ_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Syncrip'</t>
+  </si>
+  <si>
+    <t>'Heterogeneous nuclear ribonucleoprotein Q OS=Mus musculus GN=Syncrip PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q6DFV3|RHG21_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Arhgap21'</t>
+  </si>
+  <si>
+    <t>'Rho GTPase-activating protein 21 OS=Mus musculus GN=Arhgap21 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P47757|CAPZB_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Capzb'</t>
+  </si>
+  <si>
+    <t>'F-actin-capping protein subunit beta OS=Mus musculus GN=Capzb PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q99LT0|DPY30_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Dpy30'</t>
+  </si>
+  <si>
+    <t>'Protein dpy-30 homolog OS=Mus musculus GN=Dpy30 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q7SIG6|ASAP2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Asap2'</t>
+  </si>
+  <si>
+    <t>'Arf-GAP with SH3 domain, ANK repeat and PH domain-containing protein 2 OS=Mus musculus GN=Asap2 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|P28271|ACOC_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Aco1'</t>
+  </si>
+  <si>
+    <t>'Cytoplasmic aconitate hydratase OS=Mus musculus GN=Aco1 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q05D44|IF2P_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Eif5b'</t>
+  </si>
+  <si>
+    <t>'Eukaryotic translation initiation factor 5B OS=Mus musculus GN=Eif5b PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P47867|SCG3_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Scg3'</t>
+  </si>
+  <si>
+    <t>'Secretogranin-3 OS=Mus musculus GN=Scg3 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9ESN9|JIP3_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Mapk8ip3'</t>
+  </si>
+  <si>
+    <t>'C-Jun-amino-terminal kinase-interacting protein 3 OS=Mus musculus GN=Mapk8ip3 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'tr|E9QA15|E9QA15_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Cald1'</t>
+  </si>
+  <si>
+    <t>'Protein Cald1 OS=Mus musculus GN=Cald1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P61327|MGN_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Magoh'</t>
+  </si>
+  <si>
+    <t>'Protein mago nashi homolog OS=Mus musculus GN=Magoh PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9DBS2|TPRGL_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Tprg1l'</t>
+  </si>
+  <si>
+    <t>'Tumor protein p63-regulated gene 1-like protein OS=Mus musculus GN=Tprg1l PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P56375|ACYP2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Acyp2'</t>
+  </si>
+  <si>
+    <t>'Acylphosphatase-2 OS=Mus musculus GN=Acyp2 PE=2 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P06801|MAOX_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Me1'</t>
+  </si>
+  <si>
+    <t>'NADP-dependent malic enzyme OS=Mus musculus GN=Me1 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P60766-1|CDC42_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Cdc42'</t>
+  </si>
+  <si>
+    <t>'Isoform 1 of Cell division control protein 42 homolog OS=Mus musculus GN=Cdc42'</t>
+  </si>
+  <si>
+    <t>'sp|Q9DCT8|CRIP2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Crip2'</t>
+  </si>
+  <si>
+    <t>'Cysteine-rich protein 2 OS=Mus musculus GN=Crip2 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q91Z53|GRHPR_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Grhpr'</t>
+  </si>
+  <si>
+    <t>'Glyoxylate reductase/hydroxypyruvate reductase OS=Mus musculus GN=Grhpr PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8JZQ2|AFG32_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Afg3l2'</t>
+  </si>
+  <si>
+    <t>'AFG3-like protein 2 OS=Mus musculus GN=Afg3l2 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q04736|YES_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Yes1'</t>
+  </si>
+  <si>
+    <t>'Tyrosine-protein kinase Yes OS=Mus musculus GN=Yes1 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q8R3V5|SHLB2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Sh3glb2'</t>
+  </si>
+  <si>
+    <t>'Endophilin-B2 OS=Mus musculus GN=Sh3glb2 PE=2 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q2M3X8|PHAR1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Phactr1'</t>
+  </si>
+  <si>
+    <t>'Phosphatase and actin regulator 1 OS=Mus musculus GN=Phactr1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'tr|Q3UGX2|Q3UGX2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Sptb'</t>
+  </si>
+  <si>
+    <t>'Spectrin beta 1 OS=Mus musculus GN=Sptb PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9R0P3|ESTD_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Esd'</t>
+  </si>
+  <si>
+    <t>'S-formylglutathione hydrolase OS=Mus musculus GN=Esd PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8BFP9|PDK1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Pdk1'</t>
+  </si>
+  <si>
+    <t>'[Pyruvate dehydrogenase (acetyl-transferring)] kinase isozyme 1, mitochondrial OS=Mus musculus GN=Pdk1 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q9D164|FXYD6_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Fxyd6'</t>
+  </si>
+  <si>
+    <t>'FXYD domain-containing ion transport regulator 6 OS=Mus musculus GN=Fxyd6 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P47791|GSHR_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gsr'</t>
+  </si>
+  <si>
+    <t>'Glutathione reductase, mitochondrial OS=Mus musculus GN=Gsr PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q8K009|AL1L2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Aldh1l2'</t>
+  </si>
+  <si>
+    <t>'Mitochondrial 10-formyltetrahydrofolate dehydrogenase OS=Mus musculus GN=Aldh1l2 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'tr|A2A8E2|A2A8E2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'0610037L13Rik'</t>
+  </si>
+  <si>
+    <t>'Protein 0610037L13Rik OS=Mus musculus GN=0610037L13Rik PE=4 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q7TSQ8|PDPR_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Pdpr'</t>
+  </si>
+  <si>
+    <t>'Pyruvate dehydrogenase phosphatase regulatory subunit, mitochondrial OS=Mus musculus GN=Pdpr PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q69ZS6|SV2C_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Sv2c'</t>
+  </si>
+  <si>
+    <t>'Synaptic vesicle glycoprotein 2C OS=Mus musculus GN=Sv2c PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q8BUV3|GEPH_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gphn'</t>
+  </si>
+  <si>
+    <t>'Gephyrin OS=Mus musculus GN=Gphn PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P51863|VA0D1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Atp6v0d1'</t>
+  </si>
+  <si>
+    <t>'V-type proton ATPase subunit d 1 OS=Mus musculus GN=Atp6v0d1 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'tr|F6RQ26|F6RQ26_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ntm'</t>
+  </si>
+  <si>
+    <t>'Neurotrimin (Fragment) OS=Mus musculus GN=Ntm PE=4 SV=1'</t>
+  </si>
+  <si>
+    <t>'tr|A2A5Y6|A2A5Y6_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Mapt'</t>
+  </si>
+  <si>
+    <t>'Microtubule-associated protein OS=Mus musculus GN=Mapt PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9CR98|F136A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Fam136a'</t>
+  </si>
+  <si>
+    <t>'Protein FAM136A OS=Mus musculus GN=Fam136a PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'tr|Q3U422|Q3U422_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ndufv3'</t>
+  </si>
+  <si>
+    <t>'NADH dehydrogenase [ubiquinone] flavoprotein 3, mitochondrial OS=Mus musculus GN=Ndufv3 PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P16388|KCNA1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Kcna1'</t>
+  </si>
+  <si>
+    <t>'Potassium voltage-gated channel subfamily A member 1 OS=Mus musculus GN=Kcna1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'tr|F6ZRK3|F6ZRK3_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Slc1a2'</t>
+  </si>
+  <si>
+    <t>'Amino acid transporter (Fragment) OS=Mus musculus GN=Slc1a2 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'tr|E9Q223|E9Q223_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Hbb-bs'</t>
+  </si>
+  <si>
+    <t>'Protein Hbb-bs (Fragment) OS=Mus musculus GN=Hbb-bs PE=3 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9CQJ8|NDUB9_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ndufb9'</t>
+  </si>
+  <si>
+    <t>'NADH dehydrogenase [ubiquinone] 1 beta subcomplex subunit 9 OS=Mus musculus GN=Ndufb9 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q9WVA2|TIM8A_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Timm8a1'</t>
+  </si>
+  <si>
+    <t>'Mitochondrial import inner membrane translocase subunit Tim8 A OS=Mus musculus GN=Timm8a1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P27601|GNA13_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gna13'</t>
+  </si>
+  <si>
+    <t>'Guanine nucleotide-binding protein subunit alpha-13 OS=Mus musculus GN=Gna13 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|P30275|KCRU_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ckmt1'</t>
+  </si>
+  <si>
+    <t>'Creatine kinase U-type, mitochondrial OS=Mus musculus GN=Ckmt1 PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8C5H8|NAKD2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Nadk2'</t>
+  </si>
+  <si>
+    <t>'NAD kinase 2, mitochondrial OS=Mus musculus GN=Nadk2 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|Q9CR61|NDUB7_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ndufb7'</t>
+  </si>
+  <si>
+    <t>'NADH dehydrogenase [ubiquinone] 1 beta subcomplex subunit 7 OS=Mus musculus GN=Ndufb7 PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|Q9D172|ES1_MOUSE'</t>
+  </si>
+  <si>
+    <t>'D10Jhu81e'</t>
+  </si>
+  <si>
+    <t>'ES1 protein homolog, mitochondrial OS=Mus musculus GN=D10Jhu81e PE=1 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q9JIW9|RALB_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Ralb'</t>
+  </si>
+  <si>
+    <t>'Ras-related protein Ral-B OS=Mus musculus GN=Ralb PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|O55126|NIPS2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Gbas'</t>
+  </si>
+  <si>
+    <t>'Protein NipSnap homolog 2 OS=Mus musculus GN=Gbas PE=2 SV=1'</t>
+  </si>
+  <si>
+    <t>'sp|Q8VDQ8|SIR2_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Sirt2'</t>
+  </si>
+  <si>
+    <t>'NAD-dependent protein deacetylase sirtuin-2 OS=Mus musculus GN=Sirt2 PE=1 SV=2'</t>
+  </si>
+  <si>
+    <t>'sp|P12023|A4_MOUSE'</t>
+  </si>
+  <si>
+    <t>'App'</t>
+  </si>
+  <si>
+    <t>'Amyloid beta A4 protein OS=Mus musculus GN=App PE=1 SV=3'</t>
+  </si>
+  <si>
+    <t>'sp|P62069|UBP46_MOUSE'</t>
+  </si>
+  <si>
+    <t>'Usp46'</t>
+  </si>
+  <si>
+    <t>'Ubiquitin carboxyl-terminal hydrolase 46 OS=Mus musculus GN=Usp46 PE=1 SV=1'</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1338,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,12 +1377,12 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1412,2902 +1425,2902 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.85536672149175397</v>
-      </c>
-      <c r="F4">
-        <v>0.81077375192756895</v>
-      </c>
-      <c r="G4">
-        <v>0.54554369216283805</v>
-      </c>
-      <c r="H4">
-        <v>0.42929568450125899</v>
+        <v>0.75036722709735804</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>3.0786631425012101</v>
+        <v>1.99100535823249</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>0.91349853827342697</v>
+      <c r="E5" t="s">
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>0.80971652227782598</v>
-      </c>
-      <c r="G5">
-        <v>0.52795432705135403</v>
-      </c>
-      <c r="H5">
-        <v>0.43627908364215801</v>
+        <v>0.63819840193958999</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
       </c>
       <c r="I5">
-        <v>3.4704929970013598</v>
+        <v>3.6967777154057</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>0.90065788231874799</v>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>0.76266227388507002</v>
-      </c>
-      <c r="G6">
-        <v>0.61210885103386503</v>
-      </c>
-      <c r="H6">
-        <v>0.40861302931543603</v>
+        <v>0.66277990034859602</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>2.3412055932152001</v>
+        <v>11.917467409976201</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
-        <v>0.89251687912699595</v>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
       <c r="F7">
-        <v>0.77007161128416901</v>
-      </c>
-      <c r="G7">
-        <v>0.64042325163261304</v>
-      </c>
-      <c r="H7">
-        <v>0.39769119189420998</v>
+        <v>0.67815308177091405</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
       </c>
       <c r="I7">
-        <v>5.0074922476894601</v>
+        <v>3.0786631425012101</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.94249890776927403</v>
+        <v>0.84304378396478197</v>
       </c>
       <c r="F8">
-        <v>0.88164445726698504</v>
-      </c>
-      <c r="G8">
-        <v>0.54795181799076498</v>
-      </c>
-      <c r="H8">
-        <v>0.41008999424528603</v>
+        <v>0.68694336316399995</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
       </c>
       <c r="I8">
-        <v>10.704811770438001</v>
+        <v>1.7535748229210399</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.86741060502048595</v>
-      </c>
-      <c r="F9">
-        <v>0.81982130558913402</v>
-      </c>
-      <c r="G9">
-        <v>0.67085137094699099</v>
-      </c>
-      <c r="H9">
-        <v>0.37102157310748302</v>
+        <v>0.83940479672527102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
       </c>
       <c r="I9">
-        <v>2.9273774843930398</v>
+        <v>3.2146714988987299</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>0.91250468369681303</v>
-      </c>
-      <c r="F10">
-        <v>0.83262610926182001</v>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>0.62244085778329905</v>
-      </c>
-      <c r="H10">
-        <v>0.39126670307315098</v>
+        <v>0.50769824339734004</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
       </c>
       <c r="I10">
-        <v>10.9433852745815</v>
+        <v>0.18482474099999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
-        <v>0.91995129639421103</v>
+      <c r="E11" t="s">
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>0.82351667996744005</v>
-      </c>
-      <c r="G11">
-        <v>0.590407088946028</v>
-      </c>
-      <c r="H11">
-        <v>0.42413353050343999</v>
+        <v>0.71945366063782301</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
       </c>
       <c r="I11">
-        <v>62.2475155217289</v>
+        <v>0.90112385369353498</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>0.887561476517575</v>
-      </c>
-      <c r="F12">
-        <v>0.77512716510417601</v>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>0.62950960941422396</v>
-      </c>
-      <c r="H12">
-        <v>0.44910265986320003</v>
+        <v>0.52644183717633697</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
       </c>
       <c r="I12">
-        <v>1.73174801765693</v>
+        <v>3.06884284539594</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>0.84602704987857202</v>
-      </c>
-      <c r="F13">
-        <v>0.83925940087367201</v>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>0.674350592336599</v>
-      </c>
-      <c r="H13">
-        <v>0.399762611247998</v>
+        <v>0.53413779053063704</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
       </c>
       <c r="I13">
-        <v>9.5667548890946499</v>
+        <v>2.1475823001246002</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.92542998390708997</v>
+        <v>0.83892181393598497</v>
       </c>
       <c r="F14">
-        <v>0.82861241221516502</v>
-      </c>
-      <c r="G14">
-        <v>0.62931546185882004</v>
-      </c>
-      <c r="H14">
-        <v>0.42902346941347402</v>
+        <v>0.74660803428892297</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
       </c>
       <c r="I14">
-        <v>62.952374139155097</v>
+        <v>3.7143560958154098</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>0.876932143296968</v>
-      </c>
-      <c r="F15">
-        <v>0.81827907100119501</v>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>0.64579495580721302</v>
-      </c>
-      <c r="H15">
-        <v>0.44240783164930703</v>
+        <v>0.54794470185517397</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
       </c>
       <c r="I15">
-        <v>10.121240381336801</v>
+        <v>0.74304017920383103</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.92512670160707799</v>
+        <v>0.91685225329366205</v>
       </c>
       <c r="F16">
-        <v>0.81503063840060697</v>
+        <v>0.75474208278461796</v>
       </c>
       <c r="G16">
-        <v>0.67685225724764797</v>
-      </c>
-      <c r="H16">
-        <v>0.41710410253615399</v>
+        <v>0.52513245106955797</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
       </c>
       <c r="I16">
-        <v>1.78224495813749</v>
+        <v>11.612852051874899</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.92358391313629296</v>
+        <v>0.80908598710554502</v>
       </c>
       <c r="F17">
-        <v>0.84722807464822802</v>
+        <v>0.72395357543308803</v>
       </c>
       <c r="G17">
-        <v>0.630956625983212</v>
+        <v>0.52230727314131098</v>
       </c>
       <c r="H17">
-        <v>0.45959061001090501</v>
+        <v>0.37671502647460497</v>
       </c>
       <c r="I17">
-        <v>18.623388517753199</v>
+        <v>10.4902595966708</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.94025039977583802</v>
+        <v>0.91061081182648296</v>
       </c>
       <c r="F18">
-        <v>0.82531599082958895</v>
+        <v>0.72549273299109196</v>
       </c>
       <c r="G18">
-        <v>0.62716767125619699</v>
-      </c>
-      <c r="H18">
-        <v>0.49099107114297003</v>
+        <v>0.56141672719580005</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
       </c>
       <c r="I18">
-        <v>7.2234088112073698</v>
+        <v>3.1694116152967</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>135</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.91408288318392905</v>
+        <v>0.80036628545161703</v>
       </c>
       <c r="F19">
-        <v>0.86515603087249404</v>
+        <v>0.73442632688350695</v>
       </c>
       <c r="G19">
-        <v>0.62991182846841498</v>
+        <v>0.55157348428183195</v>
       </c>
       <c r="H19">
-        <v>0.49304586045012899</v>
+        <v>0.368620235124064</v>
       </c>
       <c r="I19">
-        <v>6.9658640800027296</v>
+        <v>3.1097607500012199</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.93257849931269998</v>
+        <v>0.79494424068726499</v>
       </c>
       <c r="F20">
-        <v>0.89361923552492495</v>
+        <v>0.67778719859051495</v>
       </c>
       <c r="G20">
-        <v>0.73758789609462705</v>
+        <v>0.59997370352357904</v>
       </c>
       <c r="H20">
-        <v>0.41989446040893702</v>
+        <v>0.369797040777681</v>
       </c>
       <c r="I20">
-        <v>7.8476035465901504</v>
+        <v>2.45601216986051</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.94673301282325595</v>
+        <v>0.77472820081319504</v>
       </c>
       <c r="F21">
-        <v>0.87638548962846996</v>
-      </c>
-      <c r="G21">
-        <v>0.65724197833456899</v>
+        <v>0.66280865600446504</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>0.494700966789758</v>
+        <v>0.41734802027358597</v>
       </c>
       <c r="I21">
-        <v>9.2484592602140197</v>
+        <v>43.056172005189602</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.93992063231732204</v>
+        <v>0.85726387923584801</v>
       </c>
       <c r="F22">
-        <v>0.87284304425388903</v>
+        <v>0.72545221498939705</v>
       </c>
       <c r="G22">
-        <v>0.66640108718640001</v>
+        <v>0.53785099502037204</v>
       </c>
       <c r="H22">
-        <v>0.50954528294682</v>
+        <v>0.39191474998398401</v>
       </c>
       <c r="I22">
-        <v>26.480062173652001</v>
+        <v>5.8681185352523002</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.92930472302660005</v>
+        <v>0.90837975672506499</v>
       </c>
       <c r="F23">
-        <v>0.88066483768114501</v>
+        <v>0.83935914622533803</v>
       </c>
       <c r="G23">
-        <v>0.64931640640627497</v>
-      </c>
-      <c r="H23">
-        <v>0.54615261645127899</v>
+        <v>0.51540584057834904</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
       </c>
       <c r="I23">
-        <v>1.3394183801791</v>
+        <v>3.4456735857324801</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24">
-        <v>0.94766434694997304</v>
+      <c r="E24" t="s">
+        <v>14</v>
       </c>
       <c r="F24">
-        <v>0.88435187559814199</v>
+        <v>0.80407922275844501</v>
       </c>
       <c r="G24">
-        <v>0.73618289672373705</v>
-      </c>
-      <c r="H24">
-        <v>0.51411828543778804</v>
+        <v>0.55654978331272997</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
       </c>
       <c r="I24">
-        <v>21.842920143948401</v>
+        <v>2.3614745695321799</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0.95402018468607597</v>
+        <v>0.88384957986470902</v>
       </c>
       <c r="F25">
-        <v>0.89707999205467504</v>
+        <v>0.74497755912609298</v>
       </c>
       <c r="G25">
-        <v>0.69654388893843</v>
+        <v>0.54819002790918903</v>
       </c>
       <c r="H25">
-        <v>0.54971209286021605</v>
+        <v>0.38417833562724302</v>
       </c>
       <c r="I25">
-        <v>10.979847571158199</v>
+        <v>4.7623530811992296</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0.94164555973087205</v>
+        <v>0.79574892426480803</v>
       </c>
       <c r="F26">
-        <v>0.86393724978085396</v>
+        <v>0.76906200968716698</v>
       </c>
       <c r="G26">
-        <v>0.74369353639272495</v>
+        <v>0.613441182316108</v>
       </c>
       <c r="H26">
-        <v>0.55032302520037701</v>
+        <v>0.35085331857148999</v>
       </c>
       <c r="I26">
-        <v>13.330733093320401</v>
+        <v>0.18482474099999999</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0.93683645461211096</v>
+        <v>0.86886413406718399</v>
       </c>
       <c r="F27">
-        <v>0.85739825602327302</v>
+        <v>0.67326019201664999</v>
       </c>
       <c r="G27">
-        <v>0.746027770390158</v>
+        <v>0.57419428179582999</v>
       </c>
       <c r="H27">
-        <v>0.56535331431942903</v>
+        <v>0.417536930353342</v>
       </c>
       <c r="I27">
-        <v>9.7122738371090698</v>
+        <v>4.7450659719846202</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0.92682448166461995</v>
+        <v>0.91411644589653696</v>
       </c>
       <c r="F28">
-        <v>0.892866010427253</v>
+        <v>0.80145097325051895</v>
       </c>
       <c r="G28">
-        <v>0.72402432583968601</v>
+        <v>0.54309682751779598</v>
       </c>
       <c r="H28">
-        <v>0.57930039764430497</v>
+        <v>0.36656920098914397</v>
       </c>
       <c r="I28">
-        <v>30.4471067267332</v>
+        <v>13.127077565942599</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.95821868168105695</v>
+        <v>0.92467832642251901</v>
       </c>
       <c r="F29">
-        <v>0.88731540465867198</v>
+        <v>0.76058001724170998</v>
       </c>
       <c r="G29">
-        <v>0.72493743375191599</v>
-      </c>
-      <c r="H29">
-        <v>0.583567866966342</v>
+        <v>0.58376565020015903</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
       </c>
       <c r="I29">
-        <v>40.119645387915703</v>
+        <v>4.2317624286016597</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.92271295658513397</v>
+        <v>0.89070852775474896</v>
       </c>
       <c r="F30">
-        <v>0.86706332983256496</v>
+        <v>0.79435310475409604</v>
       </c>
       <c r="G30">
-        <v>0.81318537247316203</v>
+        <v>0.55349093803590399</v>
       </c>
       <c r="H30">
-        <v>0.56184550736657102</v>
+        <v>0.376594066718138</v>
       </c>
       <c r="I30">
-        <v>3.0450777264011899</v>
+        <v>30.074659884880202</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31">
-        <v>0.96888225666494099</v>
-      </c>
-      <c r="F31">
-        <v>0.92313536132498897</v>
-      </c>
-      <c r="G31">
-        <v>0.74648388850593395</v>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
       </c>
       <c r="H31">
-        <v>0.63910033219015805</v>
+        <v>0.358049985336368</v>
       </c>
       <c r="I31">
-        <v>4.97377242667568</v>
+        <v>4.38203877947252</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0.96102089986140105</v>
+        <v>0.94970272113874699</v>
       </c>
       <c r="F32">
-        <v>0.92673752902908102</v>
+        <v>0.69453181371029504</v>
       </c>
       <c r="G32">
-        <v>0.80907637053947801</v>
-      </c>
-      <c r="H32">
-        <v>0.63228097129792205</v>
+        <v>0.62629765033004103</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
       </c>
       <c r="I32">
-        <v>48.754491835546197</v>
+        <v>4.7053252130093597</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.96840969739453797</v>
+        <v>0.88093629037708299</v>
       </c>
       <c r="F33">
-        <v>0.93231505045837404</v>
+        <v>0.77377477005127104</v>
       </c>
       <c r="G33">
-        <v>0.83179644679265696</v>
+        <v>0.55802206058261605</v>
       </c>
       <c r="H33">
-        <v>0.623606334388494</v>
+        <v>0.40160211251064698</v>
       </c>
       <c r="I33">
-        <v>80.248789681395095</v>
+        <v>7.3222258524352997</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.94571997058281398</v>
+        <v>0.78497023430317703</v>
       </c>
       <c r="F34">
-        <v>0.91885826653068703</v>
+        <v>0.77356152596153005</v>
       </c>
       <c r="G34">
-        <v>0.89171866926677601</v>
+        <v>0.60366479827500097</v>
       </c>
       <c r="H34">
-        <v>0.67726428969117003</v>
+        <v>0.39852677253771202</v>
       </c>
       <c r="I34">
-        <v>1.6093011881256301</v>
+        <v>5.1848453426287602</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.81583863291494796</v>
-      </c>
-      <c r="F35">
-        <v>0.66542893945023796</v>
-      </c>
-      <c r="G35">
-        <v>0.52856718343151399</v>
-      </c>
-      <c r="H35">
-        <v>0.36325916312604301</v>
+        <v>0.88237679190441498</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
       </c>
       <c r="I35">
-        <v>29.396613007475601</v>
+        <v>0.76966578562530197</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.90535157269418298</v>
+        <v>0.89464292689507197</v>
       </c>
       <c r="F36">
-        <v>0.67282156125966797</v>
+        <v>0.72048873419562898</v>
       </c>
       <c r="G36">
-        <v>0.51842746805851803</v>
+        <v>0.58680436185797702</v>
       </c>
       <c r="H36">
-        <v>0.35081617882830002</v>
+        <v>0.41580791147468599</v>
       </c>
       <c r="I36">
-        <v>6.9939195302473003</v>
+        <v>2.8687542918761202</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.80099030940132598</v>
+        <v>0.893018290798411</v>
       </c>
       <c r="F37">
-        <v>0.67665012421486603</v>
+        <v>0.81534840206134196</v>
       </c>
       <c r="G37">
-        <v>0.55366670906776505</v>
+        <v>0.58971346549631598</v>
       </c>
       <c r="H37">
-        <v>0.36669652828206001</v>
+        <v>0.37094040142489498</v>
       </c>
       <c r="I37">
-        <v>5.7482731401945601</v>
+        <v>10.3059414855509</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38">
-        <v>0.85511571635672701</v>
-      </c>
-      <c r="F38">
-        <v>0.695993180423647</v>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
       </c>
       <c r="G38">
-        <v>0.52073025722685395</v>
-      </c>
-      <c r="H38">
-        <v>0.37836832111948798</v>
+        <v>0.61277987196258199</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
       </c>
       <c r="I38">
-        <v>5.6637224423203998</v>
+        <v>1.8336865112076199</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0.778258892455022</v>
+        <v>0.83794205013127099</v>
       </c>
       <c r="F39">
-        <v>0.69085398653387098</v>
+        <v>0.72218340314093499</v>
       </c>
       <c r="G39">
-        <v>0.56351278510775504</v>
+        <v>0.58140452312143898</v>
       </c>
       <c r="H39">
-        <v>0.38871768978809002</v>
+        <v>0.45086399489530998</v>
       </c>
       <c r="I39">
-        <v>14.4854454770201</v>
+        <v>7.5720544289413203</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.88282520506436302</v>
+        <v>0.90575993293349699</v>
       </c>
       <c r="F40">
-        <v>0.74012031864242001</v>
+        <v>0.79212560360467699</v>
       </c>
       <c r="G40">
-        <v>0.52881538430033304</v>
+        <v>0.55323224493720402</v>
       </c>
       <c r="H40">
-        <v>0.36600937817020401</v>
+        <v>0.423469870772266</v>
       </c>
       <c r="I40">
-        <v>18.4596494070997</v>
+        <v>9.7852246156053404</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41">
-        <v>0.90394530547969398</v>
-      </c>
-      <c r="F41">
-        <v>0.75289177014108</v>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
       </c>
       <c r="G41">
-        <v>0.53314694391559803</v>
-      </c>
-      <c r="H41">
-        <v>0.37107399024256799</v>
+        <v>0.61912354653203105</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
       </c>
       <c r="I41">
-        <v>17.362668887467699</v>
+        <v>8.9061326622356294</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.82971499265395299</v>
+        <v>0.90911715826064099</v>
       </c>
       <c r="F42">
-        <v>0.72415622314345496</v>
+        <v>0.83251559094630401</v>
       </c>
       <c r="G42">
-        <v>0.502324128718458</v>
+        <v>0.50739418556542004</v>
       </c>
       <c r="H42">
-        <v>0.44546105863270702</v>
+        <v>0.44952580788969998</v>
       </c>
       <c r="I42">
-        <v>2.9439068433344899</v>
+        <v>9.1336264694827403</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.88686890612976799</v>
+        <v>0.90813116182138798</v>
       </c>
       <c r="F43">
-        <v>0.72858716147959302</v>
-      </c>
-      <c r="G43">
-        <v>0.52474674681693201</v>
+        <v>0.80825781231028404</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
       </c>
       <c r="H43">
-        <v>0.41112891530955198</v>
+        <v>0.37415251308913</v>
       </c>
       <c r="I43">
-        <v>0.18482474099999999</v>
+        <v>0.35220661078665499</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.84564115422765296</v>
+        <v>0.89894827824718304</v>
       </c>
       <c r="F44">
-        <v>0.82486577940889405</v>
+        <v>0.80705437198917096</v>
       </c>
       <c r="G44">
-        <v>0.53215738958756498</v>
+        <v>0.60648685232636801</v>
       </c>
       <c r="H44">
-        <v>0.37626781738218301</v>
+        <v>0.39728119918450699</v>
       </c>
       <c r="I44">
-        <v>2.8536628058834701</v>
+        <v>17.674027479581401</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45">
-        <v>0.90708346389982397</v>
+      <c r="E45" t="s">
+        <v>14</v>
       </c>
       <c r="F45">
-        <v>0.73617635106363899</v>
+        <v>0.83056095191840695</v>
       </c>
       <c r="G45">
-        <v>0.55854825736261204</v>
+        <v>0.57605302040806805</v>
       </c>
       <c r="H45">
-        <v>0.39203816537286801</v>
+        <v>0.41516064909836697</v>
       </c>
       <c r="I45">
-        <v>1.5877720752410101</v>
+        <v>3.4944825799299402</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.88580359135036102</v>
+        <v>0.82520394255085505</v>
       </c>
       <c r="F46">
-        <v>0.75357914059533304</v>
+        <v>0.81186070506369001</v>
       </c>
       <c r="G46">
-        <v>0.57191034810416197</v>
+        <v>0.63787708149127298</v>
       </c>
       <c r="H46">
-        <v>0.383182189980453</v>
+        <v>0.40017861882240902</v>
       </c>
       <c r="I46">
-        <v>6.2039726962524302</v>
+        <v>3.1396622956743099</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0.85423292673231099</v>
+        <v>0.89769617880228503</v>
       </c>
       <c r="F47">
-        <v>0.83277691333172499</v>
+        <v>0.76303259273540802</v>
       </c>
       <c r="G47">
-        <v>0.54228345927348398</v>
+        <v>0.62262296922362104</v>
       </c>
       <c r="H47">
-        <v>0.400944823975385</v>
+        <v>0.422165522838021</v>
       </c>
       <c r="I47">
-        <v>7.7048895758853702</v>
+        <v>9.8514743759441199</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.83480448653658201</v>
+        <v>0.91889967007455997</v>
       </c>
       <c r="F48">
-        <v>0.80512062884240498</v>
+        <v>0.81694046126541298</v>
       </c>
       <c r="G48">
-        <v>0.63480611005491105</v>
+        <v>0.59168367899159702</v>
       </c>
       <c r="H48">
-        <v>0.350176342326463</v>
+        <v>0.42009956249842101</v>
       </c>
       <c r="I48">
-        <v>13.8300166481822</v>
+        <v>25.032919351036099</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.80620488713530003</v>
+        <v>0.91849232896208099</v>
       </c>
       <c r="F49">
-        <v>0.78308005647824297</v>
+        <v>0.80389316282811896</v>
       </c>
       <c r="G49">
-        <v>0.57638939519886401</v>
+        <v>0.59596119726517804</v>
       </c>
       <c r="H49">
-        <v>0.42703296715399702</v>
+        <v>0.42588828988973099</v>
       </c>
       <c r="I49">
-        <v>4.6210368710072496</v>
+        <v>7.4767533460743598</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>0.905014118983681</v>
+        <v>0.94148052969622098</v>
       </c>
       <c r="F50">
-        <v>0.79551746364571896</v>
+        <v>0.790075047301672</v>
       </c>
       <c r="G50">
-        <v>0.61071031824756095</v>
+        <v>0.60846542959007499</v>
       </c>
       <c r="H50">
-        <v>0.37018257174166502</v>
+        <v>0.42231699096515102</v>
       </c>
       <c r="I50">
-        <v>26.496770086950001</v>
+        <v>10.6969550278542</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0.89289341965123104</v>
-      </c>
-      <c r="F51">
-        <v>0.84580286579113295</v>
-      </c>
-      <c r="G51">
-        <v>0.58689546095877698</v>
+        <v>0.84029696318760105</v>
+      </c>
+      <c r="F51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
       </c>
       <c r="H51">
-        <v>0.38347683085949702</v>
+        <v>0.42653475348119402</v>
       </c>
       <c r="I51">
-        <v>19.073576207371101</v>
+        <v>10.4820775482555</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.84911413650355105</v>
+        <v>0.86609497490257303</v>
       </c>
       <c r="F52">
-        <v>0.77053762157813399</v>
+        <v>0.82798370466897597</v>
       </c>
       <c r="G52">
-        <v>0.55343000308305501</v>
-      </c>
-      <c r="H52">
-        <v>0.46600988487890999</v>
+        <v>0.63816730648102604</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
       </c>
       <c r="I52">
-        <v>9.0387796888380603</v>
+        <v>0.79516873009376898</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53">
-        <v>0.94558618272211403</v>
+        <v>0.91368996479985598</v>
       </c>
       <c r="F53">
-        <v>0.83175984465170605</v>
+        <v>0.83849925674904502</v>
       </c>
       <c r="G53">
-        <v>0.60213555461266699</v>
+        <v>0.63675384411733604</v>
       </c>
       <c r="H53">
-        <v>0.37856212571613601</v>
+        <v>0.40049218727998198</v>
       </c>
       <c r="I53">
-        <v>2.9602530216357801</v>
+        <v>4.4796921961859697</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0.90778849011785401</v>
+        <v>0.93041008854096197</v>
       </c>
       <c r="F54">
-        <v>0.82577377419599596</v>
-      </c>
-      <c r="G54">
-        <v>0.57781294709411002</v>
+        <v>0.83906096863476598</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
       </c>
       <c r="H54">
-        <v>0.42840906463915102</v>
+        <v>0.39473142438085002</v>
       </c>
       <c r="I54">
-        <v>12.699485462817499</v>
+        <v>6.7236652289520196</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0.93201468169323598</v>
+        <v>0.91541352272694299</v>
       </c>
       <c r="F55">
-        <v>0.82784215360972702</v>
+        <v>0.85342309460032295</v>
       </c>
       <c r="G55">
-        <v>0.61714239004231597</v>
+        <v>0.65210710660784599</v>
       </c>
       <c r="H55">
-        <v>0.39803702840860899</v>
+        <v>0.39548395425333599</v>
       </c>
       <c r="I55">
-        <v>5.6639811897479797</v>
+        <v>16.301029661154999</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0.91473042376727098</v>
+        <v>0.84375929016387796</v>
       </c>
       <c r="F56">
-        <v>0.82663575749554197</v>
-      </c>
-      <c r="G56">
-        <v>0.59266098374720899</v>
+        <v>0.65649049565255801</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
       </c>
       <c r="H56">
-        <v>0.435334500835656</v>
+        <v>0.51198549846692498</v>
       </c>
       <c r="I56">
-        <v>29.772645501774001</v>
+        <v>0.41245247842121402</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>0.97296980774506503</v>
-      </c>
-      <c r="F57">
-        <v>0.85540712858134205</v>
-      </c>
-      <c r="G57">
-        <v>0.57775335588730703</v>
+        <v>0.91789128202424497</v>
+      </c>
+      <c r="F57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
       </c>
       <c r="H57">
-        <v>0.42702954474058102</v>
+        <v>0.423344337769817</v>
       </c>
       <c r="I57">
-        <v>2.4739257395098999</v>
+        <v>6.3541567025667396</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="C58" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>0.92644576804206602</v>
+        <v>0.91263810626491904</v>
       </c>
       <c r="F58">
-        <v>0.78087662215541498</v>
+        <v>0.86706108462568399</v>
       </c>
       <c r="G58">
-        <v>0.63437866492692496</v>
+        <v>0.61247440635251005</v>
       </c>
       <c r="H58">
-        <v>0.445580884141976</v>
+        <v>0.43885761789435301</v>
       </c>
       <c r="I58">
-        <v>5.8613009828388298</v>
+        <v>6.32703982380567</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="B59" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59">
-        <v>0.93066795110534695</v>
+      <c r="E59" t="s">
+        <v>14</v>
       </c>
       <c r="F59">
-        <v>0.82738088435294299</v>
-      </c>
-      <c r="G59">
-        <v>0.637008709514848</v>
+        <v>0.81425974044856697</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
       </c>
       <c r="H59">
-        <v>0.43186465044580202</v>
+        <v>0.434742317424269</v>
       </c>
       <c r="I59">
-        <v>2.6947757850517302</v>
+        <v>9.2912285987207408</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="C60" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
-      <c r="E60">
-        <v>0.93126465000514203</v>
+      <c r="E60" t="s">
+        <v>14</v>
       </c>
       <c r="F60">
-        <v>0.84609340388648901</v>
-      </c>
-      <c r="G60">
-        <v>0.63176960609626398</v>
-      </c>
-      <c r="H60">
-        <v>0.43964948266642701</v>
+        <v>0.81452740365160403</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
       </c>
       <c r="I60">
-        <v>54.351609998472</v>
+        <v>3.80945691875149</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>0.92453770690132397</v>
-      </c>
-      <c r="F61">
-        <v>0.87119672445544305</v>
-      </c>
-      <c r="G61">
-        <v>0.62365049906502201</v>
+        <v>0.79022224870186897</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
       </c>
       <c r="H61">
-        <v>0.442546096860018</v>
+        <v>0.471954844456422</v>
       </c>
       <c r="I61">
-        <v>7.5106626721548402</v>
+        <v>7.0429271292454603</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>0.93720650875553602</v>
-      </c>
-      <c r="F62">
-        <v>0.86060408512220599</v>
-      </c>
-      <c r="G62">
-        <v>0.64376242334389</v>
+        <v>0.899772623005484</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
       </c>
       <c r="H62">
-        <v>0.44008535372613899</v>
+        <v>0.447465404799752</v>
       </c>
       <c r="I62">
-        <v>2.28080064559791</v>
+        <v>3.5817126755896398</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="B63" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="C63" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
-      <c r="E63">
-        <v>0.94472380119273103</v>
-      </c>
-      <c r="F63">
-        <v>0.879351711265835</v>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
       </c>
       <c r="G63">
-        <v>0.63179063794434798</v>
-      </c>
-      <c r="H63">
-        <v>0.45006352163918101</v>
+        <v>0.670132483114249</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
       </c>
       <c r="I63">
-        <v>1.0573186550004099</v>
+        <v>0.18482474099999999</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64">
-        <v>0.94185758345417003</v>
+        <v>0.91874770034296305</v>
       </c>
       <c r="F64">
-        <v>0.84887347688693704</v>
+        <v>0.81395298239767799</v>
       </c>
       <c r="G64">
-        <v>0.61814027449423303</v>
+        <v>0.65814506599223999</v>
       </c>
       <c r="H64">
-        <v>0.48256613342003801</v>
+        <v>0.46115223667851302</v>
       </c>
       <c r="I64">
-        <v>13.2653267123286</v>
+        <v>2.1021982670008201</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="B65" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65">
-        <v>0.87523405218287298</v>
+        <v>0.947978536875553</v>
       </c>
       <c r="F65">
-        <v>0.76671096388670801</v>
+        <v>0.79907871061926306</v>
       </c>
       <c r="G65">
-        <v>0.59003701867207803</v>
+        <v>0.64590714316555697</v>
       </c>
       <c r="H65">
-        <v>0.55981378416576399</v>
+        <v>0.47548381708215798</v>
       </c>
       <c r="I65">
-        <v>3.5063174408413702</v>
+        <v>1.2917467730774299</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="C66" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
-        <v>0.87855735605627405</v>
+        <v>0.93947737115225705</v>
       </c>
       <c r="F66">
-        <v>0.81758103579826402</v>
+        <v>0.756943621906082</v>
       </c>
       <c r="G66">
-        <v>0.65149692014923699</v>
+        <v>0.72583548407491305</v>
       </c>
       <c r="H66">
-        <v>0.49605064295301798</v>
+        <v>0.44394585987301</v>
       </c>
       <c r="I66">
-        <v>7.8594443118398098</v>
+        <v>4.6158251132285502</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="B67" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0.929391009601374</v>
+        <v>0.87541231600414904</v>
       </c>
       <c r="F67">
-        <v>0.89445749407284303</v>
+        <v>0.86166724159462604</v>
       </c>
       <c r="G67">
-        <v>0.62206440535964302</v>
+        <v>0.61237736640607898</v>
       </c>
       <c r="H67">
-        <v>0.477734679588114</v>
+        <v>0.50396871497041995</v>
       </c>
       <c r="I67">
-        <v>10.378074141657301</v>
+        <v>7.3177979795150598</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="B68" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="C68" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0.93185458134356303</v>
+        <v>0.92004269366337799</v>
       </c>
       <c r="F68">
-        <v>0.91498305277054204</v>
+        <v>0.83412220796469605</v>
       </c>
       <c r="G68">
-        <v>0.68512587467825203</v>
+        <v>0.64405326996909895</v>
       </c>
       <c r="H68">
-        <v>0.43300306014534901</v>
+        <v>0.485589843873386</v>
       </c>
       <c r="I68">
-        <v>3.6765853230696202</v>
+        <v>9.43249984085476</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0.924359581147849</v>
-      </c>
-      <c r="F69">
-        <v>0.83606847136704898</v>
-      </c>
-      <c r="G69">
-        <v>0.66409572006816697</v>
+        <v>0.90613273540191397</v>
+      </c>
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
       </c>
       <c r="H69">
-        <v>0.49126147874411702</v>
+        <v>0.468375756861244</v>
       </c>
       <c r="I69">
-        <v>13.7140449075054</v>
+        <v>3.4510438153615199</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0.94437108143755299</v>
+        <v>0.95171671608097697</v>
       </c>
       <c r="F70">
-        <v>0.88168177544594395</v>
+        <v>0.82001237062627397</v>
       </c>
       <c r="G70">
-        <v>0.66952093802730706</v>
+        <v>0.66061900093160897</v>
       </c>
       <c r="H70">
-        <v>0.51665852308889704</v>
+        <v>0.48206940570659002</v>
       </c>
       <c r="I70">
-        <v>134.35478370321701</v>
+        <v>8.8325610058818391</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71">
-        <v>0.94367377450990997</v>
-      </c>
-      <c r="F71">
-        <v>0.90391928974527702</v>
-      </c>
-      <c r="G71">
-        <v>0.66034117031657202</v>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
       </c>
       <c r="H71">
-        <v>0.52819144547989205</v>
+        <v>0.47279877514659602</v>
       </c>
       <c r="I71">
-        <v>5.0609091817374203</v>
+        <v>4.1770097334470204</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="C72" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0.94554481716427097</v>
-      </c>
-      <c r="F72">
-        <v>0.91033919000770402</v>
+        <v>0.86295884181608196</v>
+      </c>
+      <c r="F72" t="s">
+        <v>14</v>
       </c>
       <c r="G72">
-        <v>0.67357965143906695</v>
+        <v>0.64530507961472705</v>
       </c>
       <c r="H72">
-        <v>0.56026306865398401</v>
+        <v>0.52181972765368601</v>
       </c>
       <c r="I72">
-        <v>2.0317103566674599</v>
+        <v>4.3442005607625704</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0.95079283964654104</v>
-      </c>
-      <c r="F73">
-        <v>0.91059929663014805</v>
-      </c>
-      <c r="G73">
-        <v>0.71417118875772401</v>
+        <v>0.86192333479404903</v>
+      </c>
+      <c r="F73" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
       </c>
       <c r="H73">
-        <v>0.59484824600283104</v>
+        <v>0.494152781311268</v>
       </c>
       <c r="I73">
-        <v>22.969504141443799</v>
+        <v>6.6757175345544999</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="C74" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0.97352544365008598</v>
+        <v>0.91368604062537595</v>
       </c>
       <c r="F74">
-        <v>0.880576380609705</v>
+        <v>0.861322131179874</v>
       </c>
       <c r="G74">
-        <v>0.78231397627608401</v>
+        <v>0.69720545474958895</v>
       </c>
       <c r="H74">
-        <v>0.64703430189164601</v>
+        <v>0.47881494232774402</v>
       </c>
       <c r="I74">
-        <v>2.19596951423163</v>
+        <v>22.726131561008899</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="C75" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0.92068436786480401</v>
+        <v>0.92349552933203405</v>
       </c>
       <c r="F75">
-        <v>0.85803317940778601</v>
+        <v>0.88200829096157696</v>
       </c>
       <c r="G75">
-        <v>0.766860371226736</v>
+        <v>0.68493451878085199</v>
       </c>
       <c r="H75">
-        <v>0.68754834277414401</v>
+        <v>0.489528575050661</v>
       </c>
       <c r="I75">
-        <v>2.6277478337510298</v>
+        <v>5.7190260434456404</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="B76" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="C76" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
-      <c r="E76">
-        <v>0.96908998850663397</v>
+      <c r="E76" t="s">
+        <v>14</v>
       </c>
       <c r="F76">
-        <v>0.93042730335773804</v>
+        <v>0.79622862778097703</v>
       </c>
       <c r="G76">
-        <v>0.832898666349425</v>
+        <v>0.68054952799874902</v>
       </c>
       <c r="H76">
-        <v>0.62489113013880804</v>
+        <v>0.53746871123781903</v>
       </c>
       <c r="I76">
-        <v>53.386817675645901</v>
+        <v>1.9203542374017399</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>235</v>
       </c>
       <c r="C77" t="s">
-        <v>307</v>
+        <v>236</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0.96699170759523201</v>
+        <v>0.925267969363337</v>
       </c>
       <c r="F77">
-        <v>0.938411453796277</v>
+        <v>0.91400501254118205</v>
       </c>
       <c r="G77">
-        <v>0.80169803806117401</v>
+        <v>0.628382277439961</v>
       </c>
       <c r="H77">
-        <v>0.65996420483886797</v>
+        <v>0.536829548492888</v>
       </c>
       <c r="I77">
-        <v>24.9266760117285</v>
+        <v>0.89211261515659901</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s">
-        <v>309</v>
+        <v>238</v>
       </c>
       <c r="C78" t="s">
-        <v>310</v>
+        <v>239</v>
       </c>
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78">
-        <v>0.97148714227461896</v>
+      <c r="E78" t="s">
+        <v>14</v>
       </c>
       <c r="F78">
-        <v>0.93646578926784996</v>
+        <v>0.77591652875133299</v>
       </c>
       <c r="G78">
-        <v>0.83480795996076795</v>
+        <v>0.76587196840606298</v>
       </c>
       <c r="H78">
-        <v>0.65745003757987197</v>
+        <v>0.51117028548030097</v>
       </c>
       <c r="I78">
-        <v>14.528413503911899</v>
+        <v>4.6608332546957003</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>241</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0.97055153307250797</v>
-      </c>
-      <c r="F79">
-        <v>0.93278179835317898</v>
-      </c>
-      <c r="G79">
-        <v>0.82632590887333901</v>
-      </c>
-      <c r="H79">
-        <v>0.68763882137455901</v>
+        <v>0.92244270896972103</v>
+      </c>
+      <c r="F79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
       </c>
       <c r="I79">
-        <v>33.845097152332897</v>
+        <v>3.5093499104503998</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0.97869822862576805</v>
+        <v>0.89683195289586304</v>
       </c>
       <c r="F80">
-        <v>0.92808120640843605</v>
-      </c>
-      <c r="G80">
-        <v>0.83263439281746598</v>
-      </c>
-      <c r="H80">
-        <v>0.70651949115770996</v>
+        <v>0.86763827840347396</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
       </c>
       <c r="I80">
-        <v>5.1019512304707497</v>
+        <v>1.2867583200919701</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81">
-        <v>0.94856033498082803</v>
-      </c>
-      <c r="F81">
-        <v>0.91661073807895599</v>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" t="s">
+        <v>14</v>
       </c>
       <c r="G81">
-        <v>0.84960227589980097</v>
+        <v>0.65180944215599101</v>
       </c>
       <c r="H81">
-        <v>0.74957537944191799</v>
+        <v>0.59045335310431102</v>
       </c>
       <c r="I81">
-        <v>5.9537783086387002</v>
+        <v>3.71766277613097</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>251</v>
       </c>
       <c r="D82">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0.82457587820572098</v>
-      </c>
-      <c r="F82">
-        <v>0.68493609150568402</v>
+        <v>0.92754571196788904</v>
+      </c>
+      <c r="F82" t="s">
+        <v>14</v>
       </c>
       <c r="G82">
-        <v>0.53007012637611695</v>
+        <v>0.77280314543992001</v>
       </c>
       <c r="H82">
-        <v>0.37382886504940999</v>
+        <v>0.518077548332467</v>
       </c>
       <c r="I82">
-        <v>21.100402723703901</v>
+        <v>5.0559080055730998</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0.78446876132716203</v>
+        <v>0.90688751538536005</v>
       </c>
       <c r="F83">
-        <v>0.70337099828361205</v>
+        <v>0.90531176055752005</v>
       </c>
       <c r="G83">
-        <v>0.56111838210500298</v>
+        <v>0.754567945895112</v>
       </c>
       <c r="H83">
-        <v>0.381429723727022</v>
+        <v>0.527824532740511</v>
       </c>
       <c r="I83">
-        <v>4.3381162462517002</v>
+        <v>8.7811869178159405</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0.82047904832707197</v>
+        <v>0.96313226632398596</v>
       </c>
       <c r="F84">
-        <v>0.69287050532251804</v>
+        <v>0.89937951839927699</v>
       </c>
       <c r="G84">
-        <v>0.57481419422412505</v>
+        <v>0.71142681440133004</v>
       </c>
       <c r="H84">
-        <v>0.373281060656041</v>
+        <v>0.557896326145361</v>
       </c>
       <c r="I84">
-        <v>13.010324926921999</v>
+        <v>8.7162151307176998</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="B85" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="D85">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0.88968154935202604</v>
+        <v>0.95122994054756005</v>
       </c>
       <c r="F85">
-        <v>0.74573571699209995</v>
+        <v>0.88015149558042804</v>
       </c>
       <c r="G85">
-        <v>0.54067995725599405</v>
+        <v>0.73051058854526496</v>
       </c>
       <c r="H85">
-        <v>0.38137542834017202</v>
+        <v>0.56529998547634797</v>
       </c>
       <c r="I85">
-        <v>14.531965601320399</v>
+        <v>3.2341511800012701</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>262</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>263</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
-      <c r="E86">
-        <v>0.82592791715587199</v>
+      <c r="E86" t="s">
+        <v>14</v>
       </c>
       <c r="F86">
-        <v>0.72166641104267604</v>
-      </c>
-      <c r="G86">
-        <v>0.59650272596334997</v>
-      </c>
-      <c r="H86">
-        <v>0.384091843813404</v>
+        <v>0.86825901004619499</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
       </c>
       <c r="I86">
-        <v>4.8533470614223599</v>
+        <v>36.429586472446701</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="C87" t="s">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87">
-        <v>0.87696288361998698</v>
-      </c>
-      <c r="F87">
-        <v>0.74212499928664899</v>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
       </c>
       <c r="G87">
-        <v>0.60309121697833801</v>
+        <v>0.714978132121739</v>
       </c>
       <c r="H87">
-        <v>0.37642106870195302</v>
+        <v>0.60455049977344499</v>
       </c>
       <c r="I87">
-        <v>74.590865989564094</v>
+        <v>2.06410369781331</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88">
-        <v>0.88484890632902202</v>
-      </c>
-      <c r="F88">
-        <v>0.79984177910140397</v>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>14</v>
       </c>
       <c r="G88">
-        <v>0.53441676161358298</v>
+        <v>0.70360492196568603</v>
       </c>
       <c r="H88">
-        <v>0.404415507364703</v>
+        <v>0.61910339971624995</v>
       </c>
       <c r="I88">
-        <v>12.371502883715801</v>
+        <v>6.0422360740677901</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>271</v>
       </c>
       <c r="C89" t="s">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89">
-        <v>0.90878656020364101</v>
+        <v>0.92506384117949503</v>
       </c>
       <c r="F89">
-        <v>0.771313063873316</v>
-      </c>
-      <c r="G89">
-        <v>0.57126231763966095</v>
+        <v>0.90364229848516897</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
       </c>
       <c r="H89">
-        <v>0.38865832965325398</v>
+        <v>0.58050092428121403</v>
       </c>
       <c r="I89">
-        <v>7.2186254337628304</v>
+        <v>1.6808793019403101</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="C90" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0.86876314272825295</v>
+        <v>0.95709892944195096</v>
       </c>
       <c r="F90">
-        <v>0.78821149088972897</v>
+        <v>0.91122896036795598</v>
       </c>
       <c r="G90">
-        <v>0.60035507413042699</v>
+        <v>0.75768020238449196</v>
       </c>
       <c r="H90">
-        <v>0.377781968572723</v>
+        <v>0.58954243931522599</v>
       </c>
       <c r="I90">
-        <v>9.8514040122907893</v>
+        <v>54.158129805197703</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0.86402671690672395</v>
+        <v>0.96096367000840899</v>
       </c>
       <c r="F91">
-        <v>0.81091419303624701</v>
+        <v>0.87817567475789304</v>
       </c>
       <c r="G91">
-        <v>0.57357882055929998</v>
+        <v>0.792748616197403</v>
       </c>
       <c r="H91">
-        <v>0.39866854296974102</v>
+        <v>0.59299217162241102</v>
       </c>
       <c r="I91">
-        <v>1.89631941244972</v>
+        <v>0.18482474099999999</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>51</v>
+        <v>279</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>281</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0.82806409586530305</v>
-      </c>
-      <c r="F92">
-        <v>0.80565900618654096</v>
+        <v>0.90315000962837899</v>
+      </c>
+      <c r="F92" t="s">
+        <v>14</v>
       </c>
       <c r="G92">
-        <v>0.59595664574013596</v>
+        <v>0.82645912838940205</v>
       </c>
       <c r="H92">
-        <v>0.39912980010951499</v>
+        <v>0.59784442598797205</v>
       </c>
       <c r="I92">
-        <v>0.18482474099999999</v>
+        <v>2.97250234448392</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>54</v>
+        <v>282</v>
       </c>
       <c r="B93" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="C93" t="s">
-        <v>56</v>
+        <v>284</v>
       </c>
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93">
-        <v>0.86699122178015398</v>
-      </c>
-      <c r="F93">
-        <v>0.80493473995514397</v>
-      </c>
-      <c r="G93">
-        <v>0.58125125480768802</v>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
       </c>
       <c r="H93">
-        <v>0.40592044921903297</v>
+        <v>0.62716309600897002</v>
       </c>
       <c r="I93">
-        <v>8.4730086371211506</v>
+        <v>1.8560361528954601</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>285</v>
       </c>
       <c r="B94" t="s">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c r="C94" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
       <c r="D94">
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0.80736666751591302</v>
+        <v>0.95980832868071897</v>
       </c>
       <c r="F94">
-        <v>0.736347557622264</v>
+        <v>0.91078957135962102</v>
       </c>
       <c r="G94">
-        <v>0.589876496824426</v>
+        <v>0.77488541633113395</v>
       </c>
       <c r="H94">
-        <v>0.46079444907137301</v>
+        <v>0.64527829073826604</v>
       </c>
       <c r="I94">
-        <v>5.7491701865647498</v>
+        <v>3.02571316216335</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>289</v>
       </c>
       <c r="C95" t="s">
-        <v>62</v>
+        <v>290</v>
       </c>
       <c r="D95">
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0.85795435061889103</v>
+        <v>0.96832255187167304</v>
       </c>
       <c r="F95">
-        <v>0.74402604574995501</v>
+        <v>0.90885529868647597</v>
       </c>
       <c r="G95">
-        <v>0.72048202568737396</v>
+        <v>0.830156029384438</v>
       </c>
       <c r="H95">
-        <v>0.36524506947670399</v>
+        <v>0.62558149755026105</v>
       </c>
       <c r="I95">
-        <v>17.7595145079951</v>
+        <v>14.244848897591799</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>63</v>
+        <v>291</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>292</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
-      <c r="E96">
-        <v>0.892836229906663</v>
-      </c>
-      <c r="F96">
-        <v>0.876750345607749</v>
-      </c>
-      <c r="G96">
-        <v>0.59335728327762505</v>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
       </c>
       <c r="H96">
-        <v>0.39635346744543598</v>
+        <v>0.65513695640590297</v>
       </c>
       <c r="I96">
-        <v>2.97370871718867</v>
+        <v>1.9547067571436201</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>295</v>
       </c>
       <c r="C97" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97">
-        <v>0.92744889210644499</v>
+        <v>0.95497556803934303</v>
       </c>
       <c r="F97">
-        <v>0.80672325083460095</v>
+        <v>0.91834816895665405</v>
       </c>
       <c r="G97">
-        <v>0.61187182257454398</v>
+        <v>0.85355783793382001</v>
       </c>
       <c r="H97">
-        <v>0.41344988050556603</v>
+        <v>0.63691345802983101</v>
       </c>
       <c r="I97">
-        <v>3.4868192409388699</v>
+        <v>3.1942651182077699</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>69</v>
+        <v>297</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>298</v>
       </c>
       <c r="C98" t="s">
-        <v>71</v>
+        <v>299</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0.88318763639029996</v>
+        <v>0.96755187142054899</v>
       </c>
       <c r="F98">
-        <v>0.80695600935364697</v>
+        <v>0.92336635988009796</v>
       </c>
       <c r="G98">
-        <v>0.59427304882831899</v>
+        <v>0.80974027798042503</v>
       </c>
       <c r="H98">
-        <v>0.44732735206774799</v>
+        <v>0.67991257715043396</v>
       </c>
       <c r="I98">
-        <v>10.1265118240949</v>
+        <v>7.1483713502487003</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>300</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="C99" t="s">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0.86038050223485596</v>
+        <v>0.957713541132452</v>
       </c>
       <c r="F99">
-        <v>0.79233456494799004</v>
+        <v>0.93477265925351205</v>
       </c>
       <c r="G99">
-        <v>0.67481502046615005</v>
+        <v>0.76112322641752905</v>
       </c>
       <c r="H99">
-        <v>0.40663414591409203</v>
+        <v>0.726878996592076</v>
       </c>
       <c r="I99">
-        <v>2.5573894967822501</v>
+        <v>2.5583257099657901</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="C100" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
-      <c r="E100">
-        <v>0.91626951018163805</v>
+      <c r="E100" t="s">
+        <v>14</v>
       </c>
       <c r="F100">
-        <v>0.78845969722141795</v>
+        <v>0.93283984874056702</v>
       </c>
       <c r="G100">
-        <v>0.64481205323937496</v>
+        <v>0.84756115256057596</v>
       </c>
       <c r="H100">
-        <v>0.43631799988339698</v>
+        <v>0.700371270252369</v>
       </c>
       <c r="I100">
-        <v>7.38497501744608</v>
+        <v>4.2184580608712201</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="C101" t="s">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0.89087548211862799</v>
-      </c>
-      <c r="F101">
-        <v>0.78249554468555704</v>
+        <v>0.95942938109120701</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
       </c>
       <c r="G101">
-        <v>0.65916623617344505</v>
+        <v>0.82194147930662098</v>
       </c>
       <c r="H101">
-        <v>0.44516495304064302</v>
+        <v>0.76808710224610499</v>
       </c>
       <c r="I101">
-        <v>1.4476472456902201</v>
+        <v>18.101139885569602</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
       <c r="C102" t="s">
-        <v>83</v>
+        <v>311</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0.79060999892568595</v>
+        <v>0.96430376603659596</v>
       </c>
       <c r="F102">
-        <v>0.74581531491971098</v>
+        <v>0.94446435839022802</v>
       </c>
       <c r="G102">
-        <v>0.62387728397119502</v>
+        <v>0.90476173254202197</v>
       </c>
       <c r="H102">
-        <v>0.52277703295118905</v>
+        <v>0.82657333502728403</v>
       </c>
       <c r="I102">
-        <v>3.4939666749207201</v>
+        <v>12.816101490942501</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>313</v>
       </c>
       <c r="C103" t="s">
-        <v>86</v>
+        <v>314</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0.88249653678736295</v>
-      </c>
-      <c r="F103">
-        <v>0.84568334925413702</v>
-      </c>
-      <c r="G103">
-        <v>0.62143366337683903</v>
-      </c>
-      <c r="H103">
-        <v>0.46728898542379999</v>
+        <v>0.75516004104696999</v>
+      </c>
+      <c r="F103" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
       </c>
       <c r="I103">
-        <v>7.6985489269793703</v>
+        <v>2.28275875054777</v>
       </c>
     </row>
   </sheetData>
@@ -4315,4 +4328,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40B7CE9-BBE8-4DB8-BF5E-F3C5BF88F0F5}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>0.98645678341227805</v>
+      </c>
+      <c r="F1">
+        <v>0.97662385304670585</v>
+      </c>
+      <c r="G1">
+        <v>0.92809594331541911</v>
+      </c>
+      <c r="H1">
+        <v>0.84137261183425505</v>
+      </c>
+      <c r="I1">
+        <v>99.175758130627088</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>